--- a/CLB07N.xlsx
+++ b/CLB07N.xlsx
@@ -11,29 +11,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="762">
   <si>
     <t/>
   </si>
   <si>
+    <t>20036197</t>
+  </si>
+  <si>
+    <t>COCA COLA PET 1 LT</t>
+  </si>
+  <si>
+    <t>CLB07N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RT,(E-14H)</t>
+  </si>
+  <si>
     <t>20036198</t>
   </si>
   <si>
     <t>COCA COLA ZERO PET1L</t>
   </si>
   <si>
-    <t>CLB07N</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
     <t>20036200</t>
   </si>
   <si>
@@ -364,76 +370,85 @@
     <t>GOLDA COFF.DOLCE 200</t>
   </si>
   <si>
+    <t>20109969</t>
+  </si>
+  <si>
+    <t>KOPIKO LUCKY DAY 180</t>
+  </si>
+  <si>
+    <t>20045415</t>
+  </si>
+  <si>
+    <t>KOPIKO 78C 240ML</t>
+  </si>
+  <si>
+    <t>20078206</t>
+  </si>
+  <si>
+    <t>LUWAK WHT ORGL 220ML</t>
+  </si>
+  <si>
+    <t>20093586</t>
+  </si>
+  <si>
+    <t>ICHTN THAI M.COFF300</t>
+  </si>
+  <si>
+    <t>20138025</t>
+  </si>
+  <si>
+    <t>HY BTS COFF TRMS 250</t>
+  </si>
+  <si>
+    <t>20138049</t>
+  </si>
+  <si>
+    <t>HY BTS COFF CPNO 250</t>
+  </si>
+  <si>
+    <t>20120904</t>
+  </si>
+  <si>
+    <t>KK BLACK AREN 220ML</t>
+  </si>
+  <si>
+    <t>20120906</t>
+  </si>
+  <si>
+    <t>KK MANTANCINO 220ML</t>
+  </si>
+  <si>
+    <t>20133409</t>
+  </si>
+  <si>
+    <t>KK CAFFE LATTE 200ML</t>
+  </si>
+  <si>
+    <t>20138168</t>
+  </si>
+  <si>
+    <t>KK CHEESE LATTEE 200</t>
+  </si>
+  <si>
+    <t>20138167</t>
+  </si>
+  <si>
+    <t>KK JPNS MATCHA 200</t>
+  </si>
+  <si>
     <t>20100026</t>
   </si>
   <si>
     <t>TORA/C ICED LATTE180</t>
   </si>
   <si>
-    <t>20109969</t>
-  </si>
-  <si>
-    <t>KOPIKO LUCKY DAY 180</t>
-  </si>
-  <si>
-    <t>20045415</t>
-  </si>
-  <si>
-    <t>KOPIKO 78C 240ML</t>
-  </si>
-  <si>
-    <t>20093586</t>
-  </si>
-  <si>
-    <t>ICHTN THAI M.COFF300</t>
-  </si>
-  <si>
-    <t>20138025</t>
-  </si>
-  <si>
-    <t>HY BTS COFF TRMS 250</t>
-  </si>
-  <si>
-    <t>20138049</t>
-  </si>
-  <si>
-    <t>HY BTS COFF CPNO 250</t>
-  </si>
-  <si>
-    <t>20120904</t>
-  </si>
-  <si>
-    <t>KK BLACK AREN 220ML</t>
-  </si>
-  <si>
-    <t>20120906</t>
-  </si>
-  <si>
-    <t>KK MANTANCINO 220ML</t>
-  </si>
-  <si>
-    <t>20133409</t>
-  </si>
-  <si>
-    <t>KK CAFFE LATTE 200ML</t>
-  </si>
-  <si>
-    <t>20138168</t>
-  </si>
-  <si>
-    <t>KK CHEESE LATTEE 200</t>
-  </si>
-  <si>
-    <t>20138167</t>
-  </si>
-  <si>
-    <t>KK JPNS MATCHA 200</t>
-  </si>
-  <si>
-    <t>20078206</t>
-  </si>
-  <si>
-    <t>LUWAK WHT ORGL 220ML</t>
+    <t>20027768</t>
+  </si>
+  <si>
+    <t>NESCAFE COFF CRM 180</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>20076770</t>
@@ -442,9 +457,6 @@
     <t>G/DAY CAPPUCCINO 250</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>20045674</t>
   </si>
   <si>
@@ -496,6 +508,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
     <t>20139578</t>
   </si>
   <si>
@@ -508,18 +523,18 @@
     <t>PC CRMY CPUCCINO 210</t>
   </si>
   <si>
+    <t>20140431</t>
+  </si>
+  <si>
+    <t>NSCAFE KITKAT LAT220</t>
+  </si>
+  <si>
     <t>20133058</t>
   </si>
   <si>
     <t>NSCAFE OAT LATTE 220</t>
   </si>
   <si>
-    <t>20027768</t>
-  </si>
-  <si>
-    <t>NESCAFE COFF CRM 180</t>
-  </si>
-  <si>
     <t>20134557</t>
   </si>
   <si>
@@ -712,9 +727,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
     <t>20077509</t>
   </si>
   <si>
@@ -1057,6 +1069,24 @@
     <t>COCO BIT SP.GUAV 350</t>
   </si>
   <si>
+    <t>20140331</t>
+  </si>
+  <si>
+    <t>COCO BIT STRAW.S 350</t>
+  </si>
+  <si>
+    <t>20140327</t>
+  </si>
+  <si>
+    <t>COCO BIT KY.GRP 350</t>
+  </si>
+  <si>
+    <t>20140332</t>
+  </si>
+  <si>
+    <t>COCO BIT HOK.MLN 350</t>
+  </si>
+  <si>
     <t>20042848</t>
   </si>
   <si>
@@ -1102,6 +1132,12 @@
     <t>MOGU2 BUBBLE GUM 320</t>
   </si>
   <si>
+    <t>20136251</t>
+  </si>
+  <si>
+    <t>JELE FRSH BLBRRY125G</t>
+  </si>
+  <si>
     <t>20136277</t>
   </si>
   <si>
@@ -1165,19 +1201,43 @@
     <t>AMO FIZZY EASY 180ML</t>
   </si>
   <si>
+    <t>10008887</t>
+  </si>
+  <si>
+    <t>ULTRA KCNG HIJAU 250</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10000278</t>
+  </si>
+  <si>
+    <t>ABC KACANG HIJAU 250</t>
+  </si>
+  <si>
+    <t>20120929</t>
+  </si>
+  <si>
+    <t>PANDA GR.JLY+BSL 310</t>
+  </si>
+  <si>
     <t>20046319</t>
   </si>
   <si>
     <t>PANDA GRASS JELY310</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20120929</t>
-  </si>
-  <si>
-    <t>PANDA GR.JLY+BSL 310</t>
+    <t>20112383</t>
+  </si>
+  <si>
+    <t>MR.NATA JELI LECI126</t>
+  </si>
+  <si>
+    <t>20112382</t>
+  </si>
+  <si>
+    <t>MR.NATA JEL BLU/B126</t>
   </si>
   <si>
     <t>20136250</t>
@@ -1192,24 +1252,6 @@
     <t>JELE COLLAGEN 150G</t>
   </si>
   <si>
-    <t>20136251</t>
-  </si>
-  <si>
-    <t>JELE FRSH BLBRRY125G</t>
-  </si>
-  <si>
-    <t>20112383</t>
-  </si>
-  <si>
-    <t>MR.NATA JELI LECI126</t>
-  </si>
-  <si>
-    <t>20112382</t>
-  </si>
-  <si>
-    <t>MR.NATA JEL BLU/B126</t>
-  </si>
-  <si>
     <t>10007970</t>
   </si>
   <si>
@@ -1243,6 +1285,18 @@
     <t>BUAVITA JC APPLE 245</t>
   </si>
   <si>
+    <t>20140324</t>
+  </si>
+  <si>
+    <t>BUAVITA K.STRAW 245</t>
+  </si>
+  <si>
+    <t>20140328</t>
+  </si>
+  <si>
+    <t>BUAVITA K MS.GRP 245</t>
+  </si>
+  <si>
     <t>10007385</t>
   </si>
   <si>
@@ -1261,18 +1315,6 @@
     <t>DIAMOND JC CRANBR200</t>
   </si>
   <si>
-    <t>10008887</t>
-  </si>
-  <si>
-    <t>ULTRA KCNG HIJAU 250</t>
-  </si>
-  <si>
-    <t>10000278</t>
-  </si>
-  <si>
-    <t>ABC KACANG HIJAU 250</t>
-  </si>
-  <si>
     <t>20065041</t>
   </si>
   <si>
@@ -1354,484 +1396,490 @@
     <t>YOBICK YOG SAKURA180</t>
   </si>
   <si>
-    <t>20129111</t>
-  </si>
-  <si>
-    <t>CIMORY YOG.BLUBR 200</t>
+    <t>20139295</t>
+  </si>
+  <si>
+    <t>BROOKFARM ORI 200ML</t>
+  </si>
+  <si>
+    <t>20139300</t>
+  </si>
+  <si>
+    <t>BROOKFARM MATCHA 200</t>
+  </si>
+  <si>
+    <t>20108987</t>
+  </si>
+  <si>
+    <t>V-SOY MULTI-GRAIN200</t>
+  </si>
+  <si>
+    <t>20037021</t>
+  </si>
+  <si>
+    <t>LACTASOY MILK ORG250</t>
+  </si>
+  <si>
+    <t>20123171</t>
+  </si>
+  <si>
+    <t>LACTASOY MILK CLG250</t>
+  </si>
+  <si>
+    <t>20019179</t>
+  </si>
+  <si>
+    <t>B/BRAND GOLD MALT140</t>
+  </si>
+  <si>
+    <t>20135311</t>
+  </si>
+  <si>
+    <t>HYDROPL ISTNC JRK350</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20069773</t>
+  </si>
+  <si>
+    <t>ISOPLUS BTL 350ML</t>
+  </si>
+  <si>
+    <t>20128918</t>
+  </si>
+  <si>
+    <t>ISOPLUS COCO 350ML</t>
+  </si>
+  <si>
+    <t>20135600</t>
+  </si>
+  <si>
+    <t>ICHTAN THAI COCO 300</t>
+  </si>
+  <si>
+    <t>20138959</t>
+  </si>
+  <si>
+    <t>IF COCONUT WTR 350ML</t>
+  </si>
+  <si>
+    <t>20138837</t>
+  </si>
+  <si>
+    <t>MZONE COCO BOOST 500</t>
+  </si>
+  <si>
+    <t>20094167</t>
+  </si>
+  <si>
+    <t>MIZONE MOOD UP 500</t>
+  </si>
+  <si>
+    <t>20094164</t>
+  </si>
+  <si>
+    <t>MIZONE ACTIVE 500ML</t>
+  </si>
+  <si>
+    <t>20038777</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 900ML</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20009722</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 500ML</t>
+  </si>
+  <si>
+    <t>20118832</t>
+  </si>
+  <si>
+    <t>ION WATER BTL 500ML</t>
+  </si>
+  <si>
+    <t>20019674</t>
+  </si>
+  <si>
+    <t>YOU C1000 ORG WTR500</t>
+  </si>
+  <si>
+    <t>20019673</t>
+  </si>
+  <si>
+    <t>YOU C1000 LMN WTR500</t>
+  </si>
+  <si>
+    <t>20138841</t>
+  </si>
+  <si>
+    <t>POKKA NAT. H.ORG 350</t>
+  </si>
+  <si>
+    <t>20015838</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 350ML</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20065248</t>
+  </si>
+  <si>
+    <t>ION WATER BTL 350ML</t>
+  </si>
+  <si>
+    <t>20057867</t>
+  </si>
+  <si>
+    <t>HYDRO COCO 500ML</t>
+  </si>
+  <si>
+    <t>20119876</t>
+  </si>
+  <si>
+    <t>HYDR.COCO VITA-D 330</t>
+  </si>
+  <si>
+    <t>20018435</t>
+  </si>
+  <si>
+    <t>HYDRO COCO 250ML</t>
+  </si>
+  <si>
+    <t>20115548</t>
+  </si>
+  <si>
+    <t>IDM COCONUT WTR 250</t>
+  </si>
+  <si>
+    <t>20128561</t>
+  </si>
+  <si>
+    <t>IDM CCNT WTR ORGE250</t>
+  </si>
+  <si>
+    <t>20089821</t>
+  </si>
+  <si>
+    <t>ORONAMIN C DRINK 120</t>
+  </si>
+  <si>
+    <t>RT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20115549</t>
+  </si>
+  <si>
+    <t>FIBE MINI 100ML</t>
+  </si>
+  <si>
+    <t>20009737</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK ORG140</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10039897</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK LMN140</t>
+  </si>
+  <si>
+    <t>20032519</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK APL140</t>
+  </si>
+  <si>
+    <t>20115636</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK MGO140</t>
+  </si>
+  <si>
+    <t>20113135</t>
+  </si>
+  <si>
+    <t>AMUNIZER BTL 140ML</t>
+  </si>
+  <si>
+    <t>20048546</t>
+  </si>
+  <si>
+    <t>HEMAVITON C1000 330</t>
+  </si>
+  <si>
+    <t>20103178</t>
+  </si>
+  <si>
+    <t>HMVTON C1000 LSO 330</t>
+  </si>
+  <si>
+    <t>20103368</t>
+  </si>
+  <si>
+    <t>HMVTON C1000 LMN 330</t>
+  </si>
+  <si>
+    <t>20128794</t>
+  </si>
+  <si>
+    <t>NS/GOODNES KURMA 189</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>20103718</t>
+  </si>
+  <si>
+    <t>TJH KURMA SUSU KR189</t>
+  </si>
+  <si>
+    <t>20124409</t>
+  </si>
+  <si>
+    <t>INDOMLK STRL HNY 189</t>
+  </si>
+  <si>
+    <t>20136193</t>
+  </si>
+  <si>
+    <t>SO GOOD SUSU STRL189</t>
+  </si>
+  <si>
+    <t>20133805</t>
+  </si>
+  <si>
+    <t>ENTRASOL STERIL 180</t>
+  </si>
+  <si>
+    <t>20134968</t>
+  </si>
+  <si>
+    <t>COLLAGENA STERIL189</t>
+  </si>
+  <si>
+    <t>20140174</t>
+  </si>
+  <si>
+    <t>BEAR BRAND CLGEN 189</t>
+  </si>
+  <si>
+    <t>10004906</t>
+  </si>
+  <si>
+    <t>BEAR BRAND STERIL189</t>
+  </si>
+  <si>
+    <t>20107748</t>
+  </si>
+  <si>
+    <t>MILKU SUSU CKLT 200</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20107749</t>
+  </si>
+  <si>
+    <t>MILKU SUSU STRO 200</t>
+  </si>
+  <si>
+    <t>20134047</t>
+  </si>
+  <si>
+    <t>MILKU SUSU ORGNAL200</t>
+  </si>
+  <si>
+    <t>10003373</t>
+  </si>
+  <si>
+    <t>INDOMILK CAIR CHO190</t>
+  </si>
+  <si>
+    <t>10003426</t>
+  </si>
+  <si>
+    <t>INDOMILK CAIR STW190</t>
+  </si>
+  <si>
+    <t>20134048</t>
+  </si>
+  <si>
+    <t>HILO PRTEIN CHOCO190</t>
+  </si>
+  <si>
+    <t>20136149</t>
+  </si>
+  <si>
+    <t>GRNFLD UHT BL.CHO200</t>
+  </si>
+  <si>
+    <t>20136077</t>
+  </si>
+  <si>
+    <t>GRNFLD UHT CF/LTE200</t>
+  </si>
+  <si>
+    <t>20135463</t>
+  </si>
+  <si>
+    <t>DNCW MLKY CHO.HZL180</t>
+  </si>
+  <si>
+    <t>20135462</t>
+  </si>
+  <si>
+    <t>DNCW MLKY CKS&amp;CRM180</t>
+  </si>
+  <si>
+    <t>10004443</t>
+  </si>
+  <si>
+    <t>INDOMILK UHT CKL 180</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>10004442</t>
+  </si>
+  <si>
+    <t>INDOMLK UHT STRW 180</t>
+  </si>
+  <si>
+    <t>20070569</t>
+  </si>
+  <si>
+    <t>INDOMLK BANANA 180</t>
+  </si>
+  <si>
+    <t>20134956</t>
+  </si>
+  <si>
+    <t>INDOMILK GOGUMA 180</t>
+  </si>
+  <si>
+    <t>20127735</t>
+  </si>
+  <si>
+    <t>INDMLK DLGNA COFF180</t>
+  </si>
+  <si>
+    <t>20126193</t>
+  </si>
+  <si>
+    <t>INDOMLK COFFE/LTE180</t>
+  </si>
+  <si>
+    <t>20125062</t>
+  </si>
+  <si>
+    <t>INDOMLK KR.BNANA 180</t>
+  </si>
+  <si>
+    <t>20132659</t>
+  </si>
+  <si>
+    <t>INDOMLK HK LYCHEE180</t>
+  </si>
+  <si>
+    <t>20091807</t>
+  </si>
+  <si>
+    <t>DIAMOND UHT CKLT 200</t>
+  </si>
+  <si>
+    <t>20136644</t>
+  </si>
+  <si>
+    <t>DIAMOND UHT MARSM200</t>
+  </si>
+  <si>
+    <t>20137977</t>
+  </si>
+  <si>
+    <t>DIAMOND UHT BBLGM200</t>
+  </si>
+  <si>
+    <t>20032643</t>
+  </si>
+  <si>
+    <t>ULTRA LOW FAT COK250</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>20032644</t>
+  </si>
+  <si>
+    <t>ULTRA LOW FAT PLN250</t>
+  </si>
+  <si>
+    <t>20130186</t>
+  </si>
+  <si>
+    <t>GRNFLD UHT CHOCO 250</t>
+  </si>
+  <si>
+    <t>20118209</t>
+  </si>
+  <si>
+    <t>GRNFLD UHT STRAW 250</t>
+  </si>
+  <si>
+    <t>20087413</t>
+  </si>
+  <si>
+    <t>GRNFLD UHT F.CRM 250</t>
+  </si>
+  <si>
+    <t>20138916</t>
+  </si>
+  <si>
+    <t>CIMORY THAI TEA 250</t>
+  </si>
+  <si>
+    <t>20136951</t>
+  </si>
+  <si>
+    <t>CMORY UHT MATCHA 250</t>
   </si>
   <si>
     <t>RT,(E-0.5B)</t>
   </si>
   <si>
-    <t>20065043</t>
-  </si>
-  <si>
-    <t>CIMORY YOG.STRW 200</t>
-  </si>
-  <si>
-    <t>20108987</t>
-  </si>
-  <si>
-    <t>V-SOY MULTI-GRAIN200</t>
-  </si>
-  <si>
-    <t>20037021</t>
-  </si>
-  <si>
-    <t>LACTASOY MILK ORG250</t>
-  </si>
-  <si>
-    <t>20123171</t>
-  </si>
-  <si>
-    <t>LACTASOY MILK CLG250</t>
-  </si>
-  <si>
-    <t>20019179</t>
-  </si>
-  <si>
-    <t>B/BRAND GOLD MALT140</t>
-  </si>
-  <si>
-    <t>20135311</t>
-  </si>
-  <si>
-    <t>HYDROPL ISTNC JRK350</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20069773</t>
-  </si>
-  <si>
-    <t>ISOPLUS BTL 350ML</t>
-  </si>
-  <si>
-    <t>20128918</t>
-  </si>
-  <si>
-    <t>ISOPLUS COCO 350ML</t>
-  </si>
-  <si>
-    <t>20135600</t>
-  </si>
-  <si>
-    <t>ICHTAN THAI COCO 300</t>
-  </si>
-  <si>
-    <t>20138959</t>
-  </si>
-  <si>
-    <t>IF COCONUT WTR 350ML</t>
-  </si>
-  <si>
-    <t>20138837</t>
-  </si>
-  <si>
-    <t>MZONE COCO BOOST 500</t>
-  </si>
-  <si>
-    <t>20094167</t>
-  </si>
-  <si>
-    <t>MIZONE MOOD UP 500</t>
-  </si>
-  <si>
-    <t>20094164</t>
-  </si>
-  <si>
-    <t>MIZONE ACTIVE 500ML</t>
-  </si>
-  <si>
-    <t>20038777</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 900ML</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20009722</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 500ML</t>
-  </si>
-  <si>
-    <t>20118832</t>
-  </si>
-  <si>
-    <t>ION WATER BTL 500ML</t>
-  </si>
-  <si>
-    <t>20019674</t>
-  </si>
-  <si>
-    <t>YOU C1000 ORG WTR500</t>
-  </si>
-  <si>
-    <t>20019673</t>
-  </si>
-  <si>
-    <t>YOU C1000 LMN WTR500</t>
-  </si>
-  <si>
-    <t>20138841</t>
-  </si>
-  <si>
-    <t>POKKA NAT. H.ORG 350</t>
-  </si>
-  <si>
-    <t>20015838</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 350ML</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20065248</t>
-  </si>
-  <si>
-    <t>ION WATER BTL 350ML</t>
-  </si>
-  <si>
-    <t>20057867</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 500ML</t>
-  </si>
-  <si>
-    <t>20119876</t>
-  </si>
-  <si>
-    <t>HYDR.COCO VITA-D 330</t>
-  </si>
-  <si>
-    <t>20018435</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 250ML</t>
-  </si>
-  <si>
-    <t>20115548</t>
-  </si>
-  <si>
-    <t>IDM COCONUT WTR 250</t>
-  </si>
-  <si>
-    <t>20128561</t>
-  </si>
-  <si>
-    <t>IDM CCNT WTR ORGE250</t>
-  </si>
-  <si>
-    <t>20089821</t>
-  </si>
-  <si>
-    <t>ORONAMIN C DRINK 120</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20115549</t>
-  </si>
-  <si>
-    <t>FIBE MINI 100ML</t>
-  </si>
-  <si>
-    <t>20009737</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK ORG140</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>10039897</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK LMN140</t>
-  </si>
-  <si>
-    <t>20032519</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK APL140</t>
-  </si>
-  <si>
-    <t>20115636</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK MGO140</t>
-  </si>
-  <si>
-    <t>20113135</t>
-  </si>
-  <si>
-    <t>AMUNIZER BTL 140ML</t>
-  </si>
-  <si>
-    <t>20048546</t>
-  </si>
-  <si>
-    <t>HEMAVITON C1000 330</t>
-  </si>
-  <si>
-    <t>20103178</t>
-  </si>
-  <si>
-    <t>HMVTON C1000 LSO 330</t>
-  </si>
-  <si>
-    <t>20103368</t>
-  </si>
-  <si>
-    <t>HMVTON C1000 LMN 330</t>
-  </si>
-  <si>
-    <t>20128794</t>
-  </si>
-  <si>
-    <t>NS/GOODNES KURMA 189</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>20103718</t>
-  </si>
-  <si>
-    <t>TJH KURMA SUSU KR189</t>
-  </si>
-  <si>
-    <t>20124409</t>
-  </si>
-  <si>
-    <t>INDOMLK STRL HNY 189</t>
-  </si>
-  <si>
-    <t>20136193</t>
-  </si>
-  <si>
-    <t>SO GOOD SUSU STRL189</t>
-  </si>
-  <si>
-    <t>20133805</t>
-  </si>
-  <si>
-    <t>ENTRASOL STERIL 180</t>
-  </si>
-  <si>
-    <t>20134968</t>
-  </si>
-  <si>
-    <t>COLLAGENA STERIL189</t>
-  </si>
-  <si>
-    <t>20140174</t>
-  </si>
-  <si>
-    <t>BEAR BRAND CLGEN 189</t>
-  </si>
-  <si>
-    <t>10004906</t>
-  </si>
-  <si>
-    <t>BEAR BRAND STERIL189</t>
-  </si>
-  <si>
-    <t>20107748</t>
-  </si>
-  <si>
-    <t>MILKU SUSU CKLT 200</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20107749</t>
-  </si>
-  <si>
-    <t>MILKU SUSU STRO 200</t>
-  </si>
-  <si>
-    <t>20134047</t>
-  </si>
-  <si>
-    <t>MILKU SUSU ORGNAL200</t>
-  </si>
-  <si>
-    <t>10003373</t>
-  </si>
-  <si>
-    <t>INDOMILK CAIR CHO190</t>
-  </si>
-  <si>
-    <t>10003426</t>
-  </si>
-  <si>
-    <t>INDOMILK CAIR STW190</t>
-  </si>
-  <si>
-    <t>20136149</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT BL.CHO200</t>
-  </si>
-  <si>
-    <t>20136077</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT CF/LTE200</t>
-  </si>
-  <si>
-    <t>20135463</t>
-  </si>
-  <si>
-    <t>DNCW MLKY CHO.HZL180</t>
-  </si>
-  <si>
-    <t>20135462</t>
-  </si>
-  <si>
-    <t>DNCW MLKY CKS&amp;CRM180</t>
-  </si>
-  <si>
-    <t>20032643</t>
-  </si>
-  <si>
-    <t>ULTRA LOW FAT COK250</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>20032644</t>
-  </si>
-  <si>
-    <t>ULTRA LOW FAT PLN250</t>
-  </si>
-  <si>
-    <t>20087413</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT F.CRM 250</t>
-  </si>
-  <si>
-    <t>20118209</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT STRAW 250</t>
-  </si>
-  <si>
-    <t>20130186</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT CHOCO 250</t>
-  </si>
-  <si>
-    <t>20139295</t>
-  </si>
-  <si>
-    <t>BROOKFARM ORI 200ML</t>
-  </si>
-  <si>
-    <t>20139300</t>
-  </si>
-  <si>
-    <t>BROOKFARM MATCHA 200</t>
-  </si>
-  <si>
-    <t>20091807</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT CKLT 200</t>
-  </si>
-  <si>
-    <t>20136644</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT MARSM200</t>
-  </si>
-  <si>
-    <t>20137977</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT BBLGM200</t>
-  </si>
-  <si>
-    <t>20138916</t>
-  </si>
-  <si>
-    <t>CIMORY THAI TEA 250</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>20136951</t>
-  </si>
-  <si>
-    <t>CMORY UHT MATCHA 250</t>
-  </si>
-  <si>
-    <t>20134048</t>
-  </si>
-  <si>
-    <t>HILO PRTEIN CHOCO190</t>
-  </si>
-  <si>
-    <t>10004443</t>
-  </si>
-  <si>
-    <t>INDOMILK UHT CKL 180</t>
-  </si>
-  <si>
-    <t>10004442</t>
-  </si>
-  <si>
-    <t>INDOMLK UHT STRW 180</t>
-  </si>
-  <si>
-    <t>20070569</t>
-  </si>
-  <si>
-    <t>INDOMLK BANANA 180</t>
-  </si>
-  <si>
-    <t>20134956</t>
-  </si>
-  <si>
-    <t>INDOMILK GOGUMA 180</t>
-  </si>
-  <si>
-    <t>20127735</t>
-  </si>
-  <si>
-    <t>INDMLK DLGNA COFF180</t>
-  </si>
-  <si>
-    <t>20126193</t>
-  </si>
-  <si>
-    <t>INDOMLK COFFE/LTE180</t>
-  </si>
-  <si>
-    <t>20125062</t>
-  </si>
-  <si>
-    <t>INDOMLK KR.BNANA 180</t>
-  </si>
-  <si>
-    <t>20132659</t>
-  </si>
-  <si>
-    <t>INDOMLK HK LYCHEE180</t>
+    <t>20140795</t>
+  </si>
+  <si>
+    <t>CIMORY UHT CHOCO 225</t>
+  </si>
+  <si>
+    <t>20140794</t>
+  </si>
+  <si>
+    <t>CIMORY UHT MARIE 225</t>
+  </si>
+  <si>
+    <t>20140793</t>
+  </si>
+  <si>
+    <t>CIMORY UHT MTCHA 225</t>
   </si>
   <si>
     <t>20122822</t>
@@ -2641,7 +2689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F352"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2685,18 +2733,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -2705,18 +2753,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -2725,18 +2773,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -2745,18 +2793,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -2765,50 +2813,50 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,13 +2870,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,33 +2890,33 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,13 +2930,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,33 +2950,33 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2942,13 +2990,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2962,13 +3010,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,13 +3030,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,13 +3050,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3022,13 +3070,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3042,13 +3090,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3062,33 +3110,33 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,13 +3150,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3122,13 +3170,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,13 +3190,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3162,53 +3210,53 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,13 +3270,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3242,13 +3290,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,13 +3310,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,33 +3330,33 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3322,13 +3370,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,13 +3390,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3362,13 +3410,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3382,13 +3430,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3402,13 +3450,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3422,13 +3470,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3442,13 +3490,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3462,13 +3510,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,13 +3530,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,13 +3550,13 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3522,33 +3570,33 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3582,13 +3630,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3602,13 +3650,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3622,13 +3670,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3642,13 +3690,13 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3662,13 +3710,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,13 +3730,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3702,13 +3750,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3722,13 +3770,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3742,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,13 +3810,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3782,13 +3830,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,13 +3850,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,13 +3870,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3842,13 +3890,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,13 +3910,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3882,13 +3930,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3902,13 +3950,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,33 +3970,33 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3962,13 +4010,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,13 +4030,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,13 +4050,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,13 +4070,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4042,13 +4090,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,13 +4110,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,153 +4130,153 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,13 +4290,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,173 +4310,173 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,13 +4490,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4462,153 +4510,153 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,13 +4670,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,173 +4690,173 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,13 +4870,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,13 +4890,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,13 +4910,13 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4882,13 +4930,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,13 +4950,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4922,13 +4970,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,53 +4990,53 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5002,13 +5050,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5022,13 +5070,13 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -5042,13 +5090,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -5062,13 +5110,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,113 +5130,113 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>267</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5202,13 +5250,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5222,13 +5270,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5242,53 +5290,53 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,13 +5350,13 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5322,13 +5370,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5342,13 +5390,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5362,13 +5410,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5382,13 +5430,13 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5402,53 +5450,53 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E140" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,13 +5510,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5482,13 +5530,13 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5502,13 +5550,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5522,13 +5570,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,53 +5590,53 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5602,13 +5650,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5622,13 +5670,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5642,13 +5690,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5682,13 +5730,13 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,13 +5750,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5722,53 +5770,53 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5782,13 +5830,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5802,13 +5850,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5822,13 +5870,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5842,113 +5890,113 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="E165" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5962,13 +6010,13 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,133 +6030,133 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,13 +6170,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,13 +6190,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6162,13 +6210,13 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,133 +6230,133 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,153 +6370,153 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C189" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,13 +6530,13 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,13 +6550,13 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,193 +6570,193 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="C199" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="C200" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="C201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="E202" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6722,13 +6770,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6742,13 +6790,13 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6762,13 +6810,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,421 +6830,421 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>449</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>449</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="E220" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>3</v>
@@ -7205,18 +7253,18 @@
         <v>492</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>3</v>
@@ -7225,18 +7273,18 @@
         <v>492</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>3</v>
@@ -7245,18 +7293,18 @@
         <v>492</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>3</v>
@@ -7265,18 +7313,18 @@
         <v>492</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>3</v>
@@ -7285,18 +7333,18 @@
         <v>492</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>3</v>
@@ -7305,1150 +7353,1150 @@
         <v>492</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>507</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>28</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="E243" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="C244" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="C252" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="E259" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="C260" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="C261" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="E269" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="C270" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="C271" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="E280" s="1" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="C281" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="C282" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="C287" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="C288" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="C289" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="E290" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>449</v>
+        <v>616</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -8462,173 +8510,173 @@
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="C292" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="C293" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="C294" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="C295" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="C296" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="C297" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="C298" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>21</v>
+        <v>616</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="E299" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8642,173 +8690,173 @@
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="C301" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="C302" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C303" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="C304" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="C305" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="C306" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="C307" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="E308" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8822,173 +8870,173 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="C310" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="C311" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="C312" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="C313" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="C314" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="C315" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="C316" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="E317" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -9002,173 +9050,173 @@
         <v>3</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="C319" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="C320" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="C321" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="C322" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="C323" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="C324" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="C325" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="E326" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -9182,13 +9230,13 @@
         <v>3</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -9202,333 +9250,493 @@
         <v>3</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>708</v>
-      </c>
       <c r="C329" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C330" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="C331" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>714</v>
-      </c>
       <c r="C332" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="C333" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="C334" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>721</v>
+        <v>23</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="C337" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>738</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>741</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F343" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C346" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>21</v>
+      <c r="B347" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/CLB07N.xlsx
+++ b/CLB07N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="767">
   <si>
     <t/>
   </si>
@@ -973,6 +973,12 @@
     <t>FRSTEA TEH MRKSA 350</t>
   </si>
   <si>
+    <t>20138841</t>
+  </si>
+  <si>
+    <t>POKKA NAT. H.ORG 350</t>
+  </si>
+  <si>
     <t>20040383</t>
   </si>
   <si>
@@ -1453,18 +1459,18 @@
     <t>ISOPLUS COCO 350ML</t>
   </si>
   <si>
+    <t>20138959</t>
+  </si>
+  <si>
+    <t>IF COCONUT WTR 350ML</t>
+  </si>
+  <si>
     <t>20135600</t>
   </si>
   <si>
     <t>ICHTAN THAI COCO 300</t>
   </si>
   <si>
-    <t>20138959</t>
-  </si>
-  <si>
-    <t>IF COCONUT WTR 350ML</t>
-  </si>
-  <si>
     <t>20138837</t>
   </si>
   <si>
@@ -1516,10 +1522,13 @@
     <t>YOU C1000 LMN WTR500</t>
   </si>
   <si>
-    <t>20138841</t>
-  </si>
-  <si>
-    <t>POKKA NAT. H.ORG 350</t>
+    <t>20141124</t>
+  </si>
+  <si>
+    <t>REGEN ORANGE 300ML</t>
+  </si>
+  <si>
+    <t>,(E-3B)</t>
   </si>
   <si>
     <t>20015838</t>
@@ -1697,6 +1706,12 @@
   </si>
   <si>
     <t>MILKU SUSU STRO 200</t>
+  </si>
+  <si>
+    <t>20141102</t>
+  </si>
+  <si>
+    <t>MILKU UHT MARIE 200</t>
   </si>
   <si>
     <t>20134047</t>
@@ -2689,7 +2704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F352"/>
+  <dimension ref="A1:F354"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -5630,10 +5645,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>23</v>
@@ -5641,19 +5656,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>23</v>
@@ -5670,10 +5685,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>23</v>
@@ -5690,10 +5705,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>23</v>
@@ -5710,10 +5725,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>23</v>
@@ -5730,13 +5745,13 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5750,13 +5765,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,13 +5785,13 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>30</v>
@@ -5810,30 +5825,30 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>23</v>
@@ -5850,13 +5865,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,13 +5885,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5890,10 +5905,10 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>23</v>
@@ -5910,10 +5925,10 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>23</v>
@@ -5930,10 +5945,10 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>23</v>
@@ -5950,10 +5965,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>23</v>
@@ -5970,10 +5985,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>23</v>
@@ -5990,10 +6005,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>23</v>
@@ -6001,19 +6016,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>23</v>
@@ -6030,10 +6045,10 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>23</v>
@@ -6050,10 +6065,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>23</v>
@@ -6070,10 +6085,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>23</v>
@@ -6090,10 +6105,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>23</v>
@@ -6110,10 +6125,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>23</v>
@@ -6130,10 +6145,10 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>23</v>
@@ -6150,33 +6165,33 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,10 +6205,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>23</v>
@@ -6210,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6230,10 +6245,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>65</v>
@@ -6250,13 +6265,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,13 +6285,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,10 +6305,10 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>68</v>
@@ -6310,13 +6325,13 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6330,10 +6345,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>23</v>
@@ -6350,10 +6365,10 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>23</v>
@@ -6361,22 +6376,22 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="E184" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,13 +6405,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6410,13 +6425,13 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6430,13 +6445,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6450,10 +6465,10 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>30</v>
@@ -6470,13 +6485,13 @@
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6490,10 +6505,10 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>23</v>
@@ -6510,10 +6525,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>23</v>
@@ -6521,19 +6536,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>23</v>
@@ -6550,10 +6565,10 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>23</v>
@@ -6570,10 +6585,10 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>23</v>
@@ -6590,10 +6605,10 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>23</v>
@@ -6610,13 +6625,13 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,10 +6645,10 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>165</v>
@@ -6650,13 +6665,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,10 +6685,10 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>23</v>
@@ -6690,10 +6705,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>23</v>
@@ -6710,30 +6725,30 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="E202" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>68</v>
@@ -6750,10 +6765,10 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>68</v>
@@ -6770,10 +6785,10 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>68</v>
@@ -6790,10 +6805,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>68</v>
@@ -6810,10 +6825,10 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>68</v>
@@ -6830,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>68</v>
@@ -6844,16 +6859,16 @@
         <v>449</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>68</v>
@@ -6861,22 +6876,22 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6890,30 +6905,30 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>5</v>
@@ -6930,13 +6945,13 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,10 +6965,10 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>23</v>
@@ -6970,10 +6985,10 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>23</v>
@@ -6990,10 +7005,10 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>23</v>
@@ -7010,13 +7025,13 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -7030,13 +7045,13 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -7050,10 +7065,10 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>23</v>
@@ -7070,10 +7085,10 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>23</v>
@@ -7090,10 +7105,10 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>23</v>
@@ -7101,19 +7116,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="E221" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>23</v>
@@ -7130,10 +7145,10 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>23</v>
@@ -7150,10 +7165,10 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>23</v>
@@ -7170,10 +7185,10 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>23</v>
@@ -7190,10 +7205,10 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>23</v>
@@ -7210,13 +7225,13 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7230,10 +7245,10 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>30</v>
@@ -7250,10 +7265,10 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>30</v>
@@ -7261,19 +7276,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="E229" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>30</v>
@@ -7290,10 +7305,10 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>30</v>
@@ -7310,13 +7325,13 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7330,10 +7345,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>23</v>
@@ -7350,10 +7365,10 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>23</v>
@@ -7370,13 +7385,13 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -7390,10 +7405,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>30</v>
@@ -7401,19 +7416,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>30</v>
@@ -7421,19 +7436,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>30</v>
@@ -7441,19 +7456,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>30</v>
@@ -7461,39 +7476,39 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>165</v>
@@ -7501,22 +7516,22 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>520</v>
+        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7530,33 +7545,33 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>68</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7570,10 +7585,10 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>23</v>
@@ -7581,19 +7596,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>23</v>
@@ -7601,19 +7616,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>23</v>
@@ -7621,59 +7636,59 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>30</v>
@@ -7681,19 +7696,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>30</v>
@@ -7701,22 +7716,22 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7730,10 +7745,10 @@
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>23</v>
@@ -7741,19 +7756,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="E253" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>23</v>
@@ -7761,19 +7776,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>23</v>
@@ -7781,59 +7796,59 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>23</v>
@@ -7841,19 +7856,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>23</v>
@@ -7861,19 +7876,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>23</v>
@@ -7890,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>23</v>
@@ -7901,19 +7916,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="E261" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>23</v>
@@ -7921,19 +7936,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>23</v>
@@ -7941,19 +7956,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>23</v>
@@ -7961,19 +7976,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>23</v>
@@ -7981,19 +7996,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>23</v>
@@ -8001,19 +8016,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>23</v>
@@ -8021,19 +8036,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>23</v>
@@ -8041,19 +8056,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>23</v>
@@ -8061,19 +8076,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>23</v>
@@ -8090,10 +8105,10 @@
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>23</v>
@@ -8110,10 +8125,10 @@
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>23</v>
@@ -8121,19 +8136,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="E272" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>23</v>
@@ -8141,19 +8156,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>23</v>
@@ -8161,19 +8176,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>23</v>
@@ -8181,19 +8196,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>23</v>
@@ -8201,19 +8216,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>23</v>
@@ -8221,19 +8236,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>23</v>
@@ -8241,19 +8256,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>23</v>
@@ -8261,19 +8276,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>23</v>
@@ -8281,19 +8296,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>23</v>
@@ -8310,10 +8325,10 @@
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>23</v>
@@ -8330,10 +8345,10 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>23</v>
@@ -8341,19 +8356,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>23</v>
@@ -8361,19 +8376,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>23</v>
@@ -8381,19 +8396,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>23</v>
@@ -8401,22 +8416,22 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>616</v>
+        <v>23</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,10 +8445,10 @@
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>23</v>
@@ -8450,30 +8465,30 @@
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>23</v>
+        <v>621</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>23</v>
@@ -8481,22 +8496,22 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>616</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>616</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8530,153 +8545,153 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>625</v>
-      </c>
       <c r="E293" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>23</v>
+        <v>621</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8690,13 +8705,13 @@
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>23</v>
+        <v>621</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8710,10 +8725,10 @@
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>23</v>
@@ -8721,19 +8736,19 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="E302" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>23</v>
@@ -8741,19 +8756,19 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>23</v>
@@ -8761,19 +8776,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>23</v>
@@ -8781,19 +8796,19 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>23</v>
@@ -8801,19 +8816,19 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>23</v>
@@ -8821,19 +8836,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>23</v>
@@ -8841,19 +8856,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>23</v>
@@ -8870,10 +8885,10 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>23</v>
@@ -8890,10 +8905,10 @@
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>23</v>
@@ -8901,19 +8916,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="E311" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>23</v>
@@ -8921,19 +8936,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>23</v>
@@ -8941,19 +8956,19 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>23</v>
@@ -8961,19 +8976,19 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>23</v>
@@ -8981,19 +8996,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>23</v>
@@ -9001,19 +9016,19 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>23</v>
@@ -9021,19 +9036,19 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>23</v>
@@ -9050,10 +9065,10 @@
         <v>3</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>23</v>
@@ -9070,10 +9085,10 @@
         <v>3</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>23</v>
@@ -9081,19 +9096,19 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="E320" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>23</v>
@@ -9101,19 +9116,19 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>23</v>
@@ -9121,19 +9136,19 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>23</v>
@@ -9141,19 +9156,19 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>23</v>
@@ -9161,19 +9176,19 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>23</v>
@@ -9181,19 +9196,19 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>23</v>
@@ -9201,19 +9216,19 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>23</v>
@@ -9230,10 +9245,10 @@
         <v>3</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>23</v>
@@ -9250,90 +9265,90 @@
         <v>3</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="E329" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>23</v>
@@ -9341,19 +9356,19 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>23</v>
@@ -9361,19 +9376,19 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>23</v>
@@ -9381,19 +9396,19 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>23</v>
@@ -9401,22 +9416,22 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -9430,13 +9445,13 @@
         <v>3</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -9450,30 +9465,30 @@
         <v>3</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="E339" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>30</v>
@@ -9481,19 +9496,19 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>23</v>
@@ -9501,62 +9516,62 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>737</v>
+        <v>23</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -9570,13 +9585,13 @@
         <v>3</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -9590,13 +9605,13 @@
         <v>3</v>
       </c>
       <c r="D345" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F345" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -9610,13 +9625,13 @@
         <v>3</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -9650,73 +9665,73 @@
         <v>3</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>754</v>
+        <v>23</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="E350" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>757</v>
+        <v>68</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="E351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F351" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -9730,12 +9745,52 @@
         <v>3</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="E352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F352" s="1" t="s">
+      <c r="F354" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/CLB07N.xlsx
+++ b/CLB07N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="766">
   <si>
     <t/>
   </si>
@@ -1528,7 +1528,10 @@
     <t>REGEN ORANGE 300ML</t>
   </si>
   <si>
-    <t>,(E-3B)</t>
+    <t>20139550</t>
+  </si>
+  <si>
+    <t>REGEN LMN LIME 300ML</t>
   </si>
   <si>
     <t>20015838</t>
@@ -1730,12 +1733,6 @@
   </si>
   <si>
     <t>INDOMILK CAIR STW190</t>
-  </si>
-  <si>
-    <t>20134048</t>
-  </si>
-  <si>
-    <t>HILO PRTEIN CHOCO190</t>
   </si>
   <si>
     <t>20136149</t>
@@ -7391,44 +7388,44 @@
         <v>20</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>505</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>30</v>
@@ -7436,19 +7433,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="C237" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>30</v>
@@ -7456,19 +7453,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>30</v>
@@ -7476,19 +7473,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="C239" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>30</v>
@@ -7496,39 +7493,39 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="C240" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="C241" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>165</v>
@@ -7536,79 +7533,79 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="C242" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>523</v>
+        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="C244" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>23</v>
@@ -7616,19 +7613,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="C246" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>23</v>
@@ -7636,19 +7633,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="C247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>23</v>
@@ -7656,59 +7653,59 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="C248" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="C249" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="C250" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>30</v>
@@ -7716,19 +7713,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="C251" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>30</v>
@@ -7736,39 +7733,39 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="C252" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="E253" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>23</v>
@@ -7776,19 +7773,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="C254" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>23</v>
@@ -7796,19 +7793,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="C255" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>23</v>
@@ -7816,59 +7813,59 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="C257" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="C258" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>23</v>
@@ -7876,19 +7873,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="C259" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>23</v>
@@ -7896,19 +7893,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="C260" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>23</v>
@@ -7916,19 +7913,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="E261" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>23</v>
@@ -7936,19 +7933,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="C262" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>23</v>
@@ -7956,19 +7953,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="C263" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>23</v>
@@ -7976,19 +7973,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>23</v>
@@ -7996,19 +7993,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>23</v>
@@ -8016,19 +8013,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="C266" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>23</v>
@@ -8036,19 +8033,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="C267" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>23</v>
@@ -8056,19 +8053,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="C268" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>23</v>
@@ -8076,19 +8073,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="C269" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>23</v>
@@ -8096,19 +8093,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="C270" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>23</v>
@@ -8116,16 +8113,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>4</v>
@@ -8136,16 +8133,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="C272" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>8</v>
@@ -8156,16 +8153,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="C273" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>11</v>
@@ -8176,16 +8173,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="C274" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>14</v>
@@ -8196,16 +8193,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="C275" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>17</v>
@@ -8216,16 +8213,16 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="C276" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>20</v>
@@ -8236,16 +8233,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="C277" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>37</v>
@@ -8256,16 +8253,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="C278" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>54</v>
@@ -8276,16 +8273,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="C279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>104</v>
@@ -8296,16 +8293,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="C280" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>145</v>
@@ -8316,16 +8313,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="C281" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>164</v>
@@ -8336,16 +8333,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>4</v>
@@ -8356,16 +8353,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="C283" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>8</v>
@@ -8376,16 +8373,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>11</v>
@@ -8396,16 +8393,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="C285" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>14</v>
@@ -8416,16 +8413,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="C286" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>17</v>
@@ -8436,16 +8433,16 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="C287" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>20</v>
@@ -8456,36 +8453,36 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="C288" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="C289" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>54</v>
@@ -8496,16 +8493,16 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>625</v>
-      </c>
       <c r="C290" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>104</v>
@@ -8516,16 +8513,16 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="C291" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>145</v>
@@ -8536,196 +8533,196 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="C293" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="C294" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="C295" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="C296" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="C297" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="C298" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="C299" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="C300" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>4</v>
@@ -8736,16 +8733,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="C302" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>8</v>
@@ -8756,16 +8753,16 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C303" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>11</v>
@@ -8776,16 +8773,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="C304" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>14</v>
@@ -8796,16 +8793,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="C305" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>17</v>
@@ -8816,16 +8813,16 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="C306" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>20</v>
@@ -8836,16 +8833,16 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="C307" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>37</v>
@@ -8856,16 +8853,16 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="C308" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>54</v>
@@ -8876,16 +8873,16 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="C309" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>104</v>
@@ -8896,16 +8893,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>4</v>
@@ -8916,16 +8913,16 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="C311" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>8</v>
@@ -8936,16 +8933,16 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="C312" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>11</v>
@@ -8956,16 +8953,16 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="C313" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>14</v>
@@ -8976,16 +8973,16 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="C314" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>17</v>
@@ -8996,16 +8993,16 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="C315" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>20</v>
@@ -9016,16 +9013,16 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="C316" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>37</v>
@@ -9036,16 +9033,16 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="C317" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>54</v>
@@ -9056,16 +9053,16 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="C318" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>104</v>
@@ -9076,16 +9073,16 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>4</v>
@@ -9096,16 +9093,16 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="C320" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>8</v>
@@ -9116,16 +9113,16 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="C321" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>11</v>
@@ -9136,16 +9133,16 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="C322" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>14</v>
@@ -9156,16 +9153,16 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="C323" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>17</v>
@@ -9176,16 +9173,16 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="C324" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>20</v>
@@ -9196,16 +9193,16 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="C325" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>37</v>
@@ -9216,16 +9213,16 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="C326" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>54</v>
@@ -9236,16 +9233,16 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>703</v>
-      </c>
       <c r="C327" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>104</v>
@@ -9256,16 +9253,16 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>4</v>
@@ -9276,16 +9273,16 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>708</v>
-      </c>
       <c r="C329" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>8</v>
@@ -9296,16 +9293,16 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C330" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>11</v>
@@ -9316,16 +9313,16 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="C331" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>14</v>
@@ -9336,16 +9333,16 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>714</v>
-      </c>
       <c r="C332" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>17</v>
@@ -9356,16 +9353,16 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="C333" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>20</v>
@@ -9376,16 +9373,16 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="C334" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>37</v>
@@ -9396,16 +9393,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>54</v>
@@ -9416,16 +9413,16 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="C336" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>104</v>
@@ -9436,16 +9433,16 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="C337" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>145</v>
@@ -9456,16 +9453,16 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>4</v>
@@ -9476,16 +9473,16 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="C339" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>8</v>
@@ -9496,16 +9493,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>731</v>
-      </c>
       <c r="C340" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>11</v>
@@ -9516,16 +9513,16 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>14</v>
@@ -9536,16 +9533,16 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>17</v>
@@ -9556,16 +9553,16 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>20</v>
@@ -9576,16 +9573,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="C344" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>37</v>
@@ -9596,36 +9593,36 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="C345" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="C346" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>104</v>
@@ -9636,16 +9633,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>4</v>
@@ -9656,16 +9653,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="C348" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>8</v>
@@ -9676,16 +9673,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>4</v>
@@ -9696,16 +9693,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>4</v>
@@ -9716,76 +9713,76 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="C352" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="C353" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="C354" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>14</v>

--- a/CLB07N.xlsx
+++ b/CLB07N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="756">
   <si>
     <t/>
   </si>
@@ -76,241 +76,1111 @@
     <t>6</t>
   </si>
   <si>
+    <t>20129966</t>
+  </si>
+  <si>
+    <t>N/P MINUMAN LIME 330</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20139698</t>
+  </si>
+  <si>
+    <t>AJE BIG NPS MADU 350</t>
+  </si>
+  <si>
+    <t>20124899</t>
+  </si>
+  <si>
+    <t>CHI/FRST LYC/FZY 480</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20124898</t>
+  </si>
+  <si>
+    <t>CHI/FRST WHT/PCH 480</t>
+  </si>
+  <si>
+    <t>20035829</t>
+  </si>
+  <si>
+    <t>TEBS TEA WT/SODA 500</t>
+  </si>
+  <si>
+    <t>20135619</t>
+  </si>
+  <si>
+    <t>TEBS ZERO LYCHEE 300</t>
+  </si>
+  <si>
+    <t>20138893</t>
+  </si>
+  <si>
+    <t>AMO DRMY STRAW 180ML</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20138894</t>
+  </si>
+  <si>
+    <t>AMO FIZZY EASY 180ML</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20065778</t>
+  </si>
+  <si>
+    <t>COCA COLA PET 390 ML</t>
+  </si>
+  <si>
+    <t>20128821</t>
+  </si>
+  <si>
+    <t>COCA COLA ZERO 390ML</t>
+  </si>
+  <si>
+    <t>20140260</t>
+  </si>
+  <si>
+    <t>CC.COLA ZERO VAN 390</t>
+  </si>
+  <si>
+    <t>20065779</t>
+  </si>
+  <si>
+    <t>SPRITE PET 390 ML</t>
+  </si>
+  <si>
+    <t>20130667</t>
+  </si>
+  <si>
+    <t>SPRITE ZERO LIME 390</t>
+  </si>
+  <si>
+    <t>20065780</t>
+  </si>
+  <si>
+    <t>FANTA STRW PET 390ML</t>
+  </si>
+  <si>
+    <t>20137093</t>
+  </si>
+  <si>
+    <t>FANTA ZERO STRAWB390</t>
+  </si>
+  <si>
+    <t>20093993</t>
+  </si>
+  <si>
+    <t>FANTA GRAPE 390ML</t>
+  </si>
+  <si>
+    <t>20123500</t>
+  </si>
+  <si>
+    <t>A&amp;W DRINK SARSA 250</t>
+  </si>
+  <si>
+    <t>20068089</t>
+  </si>
+  <si>
+    <t>GR.SANDS LMN&amp;GRP 250</t>
+  </si>
+  <si>
+    <t>10000107</t>
+  </si>
+  <si>
+    <t>GREEN SAND ORGNL 330</t>
+  </si>
+  <si>
+    <t>10033567</t>
+  </si>
+  <si>
+    <t>BINTANG ZERO KLG 330</t>
+  </si>
+  <si>
+    <t>20135345</t>
+  </si>
+  <si>
+    <t>GROOVY ROOT BREW 330</t>
+  </si>
+  <si>
+    <t>RT,(E-2.5B)</t>
+  </si>
+  <si>
+    <t>20133709</t>
+  </si>
+  <si>
+    <t>POLARIS SARSAPRLA330</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>10037437</t>
+  </si>
+  <si>
+    <t>C/B PENY.STRAW 320</t>
+  </si>
+  <si>
+    <t>10003627</t>
+  </si>
+  <si>
+    <t>C/B PENY.ORANGE320</t>
+  </si>
+  <si>
+    <t>10004237</t>
+  </si>
+  <si>
+    <t>C/B PENY.LECI 320ML</t>
+  </si>
+  <si>
+    <t>10003842</t>
+  </si>
+  <si>
+    <t>C/B PENY.JAMBU 320</t>
+  </si>
+  <si>
+    <t>20037144</t>
+  </si>
+  <si>
+    <t>KAKI3 PENY.LECI 320</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20037150</t>
+  </si>
+  <si>
+    <t>KAKI3 PENY.JAMBU 320</t>
+  </si>
+  <si>
+    <t>20037147</t>
+  </si>
+  <si>
+    <t>KAKI TIGA STRO 320ML</t>
+  </si>
+  <si>
+    <t>20045995</t>
+  </si>
+  <si>
+    <t>KAKI3 ANAK STRO 238</t>
+  </si>
+  <si>
+    <t>20127835</t>
+  </si>
+  <si>
+    <t>ALANG SARI JN 300ML</t>
+  </si>
+  <si>
+    <t>20053540</t>
+  </si>
+  <si>
+    <t>ADEM SARI CK BTL 350</t>
+  </si>
+  <si>
+    <t>20122090</t>
+  </si>
+  <si>
+    <t>ADEM/S MD LMN TEA350</t>
+  </si>
+  <si>
+    <t>20083775</t>
+  </si>
+  <si>
+    <t>ADEMSARI CK HR.T 320</t>
+  </si>
+  <si>
+    <t>20040276</t>
+  </si>
+  <si>
+    <t>ADEM SARI CK KLG 320</t>
+  </si>
+  <si>
+    <t>20071642</t>
+  </si>
+  <si>
+    <t>ADEMSARI CK SPRK 320</t>
+  </si>
+  <si>
+    <t>20069199</t>
+  </si>
+  <si>
+    <t>KAKI3 LMN.LM KLG 320</t>
+  </si>
+  <si>
+    <t>20045996</t>
+  </si>
+  <si>
+    <t>KAKI3 ANAK LECI 238</t>
+  </si>
+  <si>
+    <t>20102789</t>
+  </si>
+  <si>
+    <t>ABC CHOCMLT COFF 200</t>
+  </si>
+  <si>
+    <t>20102790</t>
+  </si>
+  <si>
+    <t>ABC MILK COFFEE 200</t>
+  </si>
+  <si>
+    <t>20120499</t>
+  </si>
+  <si>
+    <t>K/A SIGNT STRONG 200</t>
+  </si>
+  <si>
+    <t>20089792</t>
+  </si>
+  <si>
+    <t>K/A DRNK BLK COFF200</t>
+  </si>
+  <si>
+    <t>20124713</t>
+  </si>
+  <si>
+    <t>LUWAK KOPI+GULA 220</t>
+  </si>
+  <si>
+    <t>20123322</t>
+  </si>
+  <si>
+    <t>GOLDA CAPPUCCINO 200</t>
+  </si>
+  <si>
+    <t>20087542</t>
+  </si>
+  <si>
+    <t>GOLDA COFF.DOLCE 200</t>
+  </si>
+  <si>
+    <t>20109969</t>
+  </si>
+  <si>
+    <t>KOPIKO LUCKY DAY 180</t>
+  </si>
+  <si>
+    <t>20045415</t>
+  </si>
+  <si>
+    <t>KOPIKO 78C 240ML</t>
+  </si>
+  <si>
+    <t>20078206</t>
+  </si>
+  <si>
+    <t>LUWAK WHT ORGL 220ML</t>
+  </si>
+  <si>
+    <t>20093586</t>
+  </si>
+  <si>
+    <t>ICHTN THAI M.COFF300</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20138025</t>
+  </si>
+  <si>
+    <t>HY BTS COFF TRMS 250</t>
+  </si>
+  <si>
+    <t>20138049</t>
+  </si>
+  <si>
+    <t>HY BTS COFF CPNO 250</t>
+  </si>
+  <si>
+    <t>20120904</t>
+  </si>
+  <si>
+    <t>KK BLACK AREN 220ML</t>
+  </si>
+  <si>
+    <t>20120906</t>
+  </si>
+  <si>
+    <t>KK MANTANCINO 220ML</t>
+  </si>
+  <si>
+    <t>20133409</t>
+  </si>
+  <si>
+    <t>KK CAFFE LATTE 200ML</t>
+  </si>
+  <si>
+    <t>20138168</t>
+  </si>
+  <si>
+    <t>KK CHEESE LATTEE 200</t>
+  </si>
+  <si>
+    <t>20138167</t>
+  </si>
+  <si>
+    <t>KK JPNS MATCHA 200</t>
+  </si>
+  <si>
+    <t>20027768</t>
+  </si>
+  <si>
+    <t>NESCAFE COFF CRM 180</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20076770</t>
+  </si>
+  <si>
+    <t>G/DAY CAPPUCCINO 250</t>
+  </si>
+  <si>
+    <t>20045674</t>
+  </si>
+  <si>
+    <t>G/DAY F.MOCACINO 250</t>
+  </si>
+  <si>
+    <t>20045673</t>
+  </si>
+  <si>
+    <t>G/DAY TIRAMISU/B 250</t>
+  </si>
+  <si>
+    <t>20056193</t>
+  </si>
+  <si>
+    <t>GOOD DAY AVCDO/D 250</t>
+  </si>
+  <si>
+    <t>20132329</t>
+  </si>
+  <si>
+    <t>GOOD DAY GRVY CKS250</t>
+  </si>
+  <si>
+    <t>20132760</t>
+  </si>
+  <si>
+    <t>CAFINO RTD ESPRSO200</t>
+  </si>
+  <si>
+    <t>20132761</t>
+  </si>
+  <si>
+    <t>CAFINO RTD CPCINO200</t>
+  </si>
+  <si>
+    <t>20138035</t>
+  </si>
+  <si>
+    <t>CAFFINO OATMARIE 200</t>
+  </si>
+  <si>
+    <t>20139577</t>
+  </si>
+  <si>
+    <t>PC AREN LATTE 210ML</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20139578</t>
+  </si>
+  <si>
+    <t>PC GOLDN CARAMEL 210</t>
+  </si>
+  <si>
+    <t>20139576</t>
+  </si>
+  <si>
+    <t>PC CRMY CPUCCINO 210</t>
+  </si>
+  <si>
+    <t>20140431</t>
+  </si>
+  <si>
+    <t>NSCAFE KITKAT LAT220</t>
+  </si>
+  <si>
+    <t>20133058</t>
+  </si>
+  <si>
+    <t>NSCAFE OAT LATTE 220</t>
+  </si>
+  <si>
+    <t>20134557</t>
+  </si>
+  <si>
+    <t>OATSIDE CRML MCHT200</t>
+  </si>
+  <si>
+    <t>20129108</t>
+  </si>
+  <si>
+    <t>OATSDE COFFEE 200</t>
+  </si>
+  <si>
+    <t>20114494</t>
+  </si>
+  <si>
+    <t>NSCAFE CRML MCTO 220</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20114495</t>
+  </si>
+  <si>
+    <t>NESCAFE CPUCCINO 220</t>
+  </si>
+  <si>
+    <t>20114493</t>
+  </si>
+  <si>
+    <t>NESCAFE LATTE 220ML</t>
+  </si>
+  <si>
+    <t>20138057</t>
+  </si>
+  <si>
+    <t>NSCAFE GULA AREN 220</t>
+  </si>
+  <si>
+    <t>20121456</t>
+  </si>
+  <si>
+    <t>NSCAFE ICE BLACK 220</t>
+  </si>
+  <si>
+    <t>20000787</t>
+  </si>
+  <si>
+    <t>NESCAFE ICE.CF OR220</t>
+  </si>
+  <si>
+    <t>20014954</t>
+  </si>
+  <si>
+    <t>NESCAFE ICE.CF MC220</t>
+  </si>
+  <si>
+    <t>20000786</t>
+  </si>
+  <si>
+    <t>NESCAFE ICE.CF LT220</t>
+  </si>
+  <si>
+    <t>20125115</t>
+  </si>
+  <si>
+    <t>STARBUCKS LATTE 220</t>
+  </si>
+  <si>
+    <t>20125126</t>
+  </si>
+  <si>
+    <t>STARBUCKS CARAMEL220</t>
+  </si>
+  <si>
+    <t>20014608</t>
+  </si>
+  <si>
+    <t>HRMVTON PSK BUMI 150</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10006263</t>
+  </si>
+  <si>
+    <t>HEMAVITON ENERGY 150</t>
+  </si>
+  <si>
+    <t>10002602</t>
+  </si>
+  <si>
+    <t>M-150 HEALT DRINK150</t>
+  </si>
+  <si>
+    <t>10002595</t>
+  </si>
+  <si>
+    <t>KRATINGDAENG 150 ML</t>
+  </si>
+  <si>
+    <t>10003427</t>
+  </si>
+  <si>
+    <t>KRATINGDAENG SPR.150</t>
+  </si>
+  <si>
+    <t>20022431</t>
+  </si>
+  <si>
+    <t>RED BULL E/DRNK 250</t>
+  </si>
+  <si>
+    <t>20056989</t>
+  </si>
+  <si>
+    <t>RED BULL GOLD 250ML</t>
+  </si>
+  <si>
+    <t>20138252</t>
+  </si>
+  <si>
+    <t>EXTRA JOSS ULTIMT250</t>
+  </si>
+  <si>
+    <t>20072287</t>
+  </si>
+  <si>
+    <t>M150 MNN ENRG CN 250</t>
+  </si>
+  <si>
+    <t>20080088</t>
+  </si>
+  <si>
+    <t>POKKA GREEN TEA 450</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20037565</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH MLATI500</t>
+  </si>
+  <si>
+    <t>20048348</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH L/SGR500</t>
+  </si>
+  <si>
+    <t>20036157</t>
+  </si>
+  <si>
+    <t>SOSRO TEH BOTOL 450</t>
+  </si>
+  <si>
+    <t>20002203</t>
+  </si>
+  <si>
+    <t>SOSRO F.TEA APEL 500</t>
+  </si>
+  <si>
+    <t>20003698</t>
+  </si>
+  <si>
+    <t>SOSRO FR.TEA XTRM500</t>
+  </si>
+  <si>
+    <t>20002205</t>
+  </si>
+  <si>
+    <t>SOSRO F.TEA BLKCR500</t>
+  </si>
+  <si>
+    <t>20134046</t>
+  </si>
+  <si>
+    <t>FRUIT TEA FREEZE 500</t>
+  </si>
+  <si>
+    <t>20060210</t>
+  </si>
+  <si>
+    <t>IDM TEH HJAU MLT 330</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20077509</t>
+  </si>
+  <si>
+    <t>IDM LEMON TEA 330ML</t>
+  </si>
+  <si>
+    <t>20126464</t>
+  </si>
+  <si>
+    <t>IDM TEH APL&amp;LYCHE350</t>
+  </si>
+  <si>
+    <t>20101897</t>
+  </si>
+  <si>
+    <t>IDM TEH APEL 350ML</t>
+  </si>
+  <si>
+    <t>20132840</t>
+  </si>
+  <si>
+    <t>IDM TEH BLCKCRRNT350</t>
+  </si>
+  <si>
+    <t>20066454</t>
+  </si>
+  <si>
+    <t>FRUIT TEA BLCKCR 350</t>
+  </si>
+  <si>
+    <t>20073495</t>
+  </si>
+  <si>
+    <t>FRUIT TEA FREEZE 350</t>
+  </si>
+  <si>
+    <t>20066455</t>
+  </si>
+  <si>
+    <t>FRUIT TEA APPLE 350</t>
+  </si>
+  <si>
+    <t>20079972</t>
+  </si>
+  <si>
+    <t>FRUIT TEA MRKISA 350</t>
+  </si>
+  <si>
+    <t>20060207</t>
+  </si>
+  <si>
+    <t>I/OCHA TEH MLATI 350</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20048934</t>
+  </si>
+  <si>
+    <t>I/OCHA GRN TEA 350ML</t>
+  </si>
+  <si>
+    <t>20018904</t>
+  </si>
+  <si>
+    <t>NU GREEN TEA HNY 330</t>
+  </si>
+  <si>
+    <t>20053867</t>
+  </si>
+  <si>
+    <t>TEH GELAS BTL 350ML</t>
+  </si>
+  <si>
+    <t>20073396</t>
+  </si>
+  <si>
+    <t>S-TEE BTL 390ML</t>
+  </si>
+  <si>
+    <t>20072249</t>
+  </si>
+  <si>
+    <t>SOSRO TEH BOTOL 350</t>
+  </si>
+  <si>
+    <t>20122278</t>
+  </si>
+  <si>
+    <t>TEH BOTOL LS.SGR 350</t>
+  </si>
+  <si>
+    <t>20082395</t>
+  </si>
+  <si>
+    <t>TEH BOTOL TAWAR 350</t>
+  </si>
+  <si>
+    <t>RT,(E-3.5B)</t>
+  </si>
+  <si>
+    <t>20035484</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH MLATI350</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20048155</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH L/SGR350</t>
+  </si>
+  <si>
+    <t>20026226</t>
+  </si>
+  <si>
+    <t>ULTRA TEH KOTAK 500</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10036640</t>
+  </si>
+  <si>
+    <t>TEH KOTAK JASMINE300</t>
+  </si>
+  <si>
+    <t>20044334</t>
+  </si>
+  <si>
+    <t>SOSRO TEH BTL TPK300</t>
+  </si>
+  <si>
+    <t>10005128</t>
+  </si>
+  <si>
+    <t>SOSRO TEH KOTAK B250</t>
+  </si>
+  <si>
+    <t>20024315</t>
+  </si>
+  <si>
+    <t>TEH BOTOL LS.SGR 250</t>
+  </si>
+  <si>
     <t>20002209</t>
   </si>
   <si>
     <t>TEBS SPRK MIX FRT330</t>
   </si>
   <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20135619</t>
-  </si>
-  <si>
-    <t>TEBS ZERO LYCHEE 300</t>
-  </si>
-  <si>
-    <t>20035829</t>
-  </si>
-  <si>
-    <t>TEBS TEA WT/SODA 500</t>
-  </si>
-  <si>
-    <t>20124899</t>
-  </si>
-  <si>
-    <t>CHI/FRST LYC/FZY 480</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20124898</t>
-  </si>
-  <si>
-    <t>CHI/FRST WHT/PCH 480</t>
-  </si>
-  <si>
-    <t>20139698</t>
-  </si>
-  <si>
-    <t>AJE BIG NPS MADU 350</t>
-  </si>
-  <si>
-    <t>20129966</t>
-  </si>
-  <si>
-    <t>N/P MINUMAN LIME 330</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20065778</t>
-  </si>
-  <si>
-    <t>COCA COLA PET 390 ML</t>
-  </si>
-  <si>
-    <t>20128821</t>
-  </si>
-  <si>
-    <t>COCA COLA ZERO 390ML</t>
-  </si>
-  <si>
-    <t>20140260</t>
-  </si>
-  <si>
-    <t>CC.COLA ZERO VAN 390</t>
-  </si>
-  <si>
-    <t>20065779</t>
-  </si>
-  <si>
-    <t>SPRITE PET 390 ML</t>
-  </si>
-  <si>
-    <t>20130667</t>
-  </si>
-  <si>
-    <t>SPRITE ZERO LIME 390</t>
-  </si>
-  <si>
-    <t>20065780</t>
-  </si>
-  <si>
-    <t>FANTA STRW PET 390ML</t>
-  </si>
-  <si>
-    <t>20137093</t>
-  </si>
-  <si>
-    <t>FANTA ZERO STRAWB390</t>
-  </si>
-  <si>
-    <t>20093993</t>
-  </si>
-  <si>
-    <t>FANTA GRAPE 390ML</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20123500</t>
-  </si>
-  <si>
-    <t>A&amp;W DRINK SARSA 250</t>
-  </si>
-  <si>
-    <t>20068089</t>
-  </si>
-  <si>
-    <t>GR.SANDS LMN&amp;GRP 250</t>
-  </si>
-  <si>
-    <t>10000107</t>
-  </si>
-  <si>
-    <t>GREEN SAND ORGNL 330</t>
-  </si>
-  <si>
-    <t>10033567</t>
-  </si>
-  <si>
-    <t>BINTANG ZERO KLG 330</t>
-  </si>
-  <si>
-    <t>20135345</t>
-  </si>
-  <si>
-    <t>GROOVY ROOT BREW 330</t>
-  </si>
-  <si>
-    <t>RT,(E-2.5B)</t>
-  </si>
-  <si>
-    <t>20133709</t>
-  </si>
-  <si>
-    <t>POLARIS SARSAPRLA330</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>10037437</t>
-  </si>
-  <si>
-    <t>C/B PENY.STRAW 320</t>
-  </si>
-  <si>
-    <t>10003627</t>
-  </si>
-  <si>
-    <t>C/B PENY.ORANGE320</t>
-  </si>
-  <si>
-    <t>10004237</t>
-  </si>
-  <si>
-    <t>C/B PENY.LECI 320ML</t>
-  </si>
-  <si>
-    <t>10003842</t>
-  </si>
-  <si>
-    <t>C/B PENY.JAMBU 320</t>
-  </si>
-  <si>
-    <t>20037144</t>
-  </si>
-  <si>
-    <t>KAKI3 PENY.LECI 320</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20037150</t>
-  </si>
-  <si>
-    <t>KAKI3 PENY.JAMBU 320</t>
-  </si>
-  <si>
-    <t>20037147</t>
-  </si>
-  <si>
-    <t>KAKI TIGA STRO 320ML</t>
-  </si>
-  <si>
-    <t>20045995</t>
-  </si>
-  <si>
-    <t>KAKI3 ANAK STRO 238</t>
-  </si>
-  <si>
-    <t>20053540</t>
-  </si>
-  <si>
-    <t>ADEM SARI CK BTL 350</t>
-  </si>
-  <si>
-    <t>20122090</t>
-  </si>
-  <si>
-    <t>ADEM/S MD LMN TEA350</t>
-  </si>
-  <si>
-    <t>20083775</t>
-  </si>
-  <si>
-    <t>ADEMSARI CK HR.T 320</t>
-  </si>
-  <si>
-    <t>20040276</t>
-  </si>
-  <si>
-    <t>ADEM SARI CK KLG 320</t>
-  </si>
-  <si>
-    <t>20071642</t>
-  </si>
-  <si>
-    <t>ADEMSARI CK SPRK 320</t>
-  </si>
-  <si>
-    <t>20069199</t>
-  </si>
-  <si>
-    <t>KAKI3 LMN.LM KLG 320</t>
-  </si>
-  <si>
-    <t>20045996</t>
-  </si>
-  <si>
-    <t>KAKI3 ANAK LECI 238</t>
+    <t>20048435</t>
+  </si>
+  <si>
+    <t>TEH KOTAK LESS/S 300</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20100142</t>
+  </si>
+  <si>
+    <t>TEH KOTAK BLCKCR 300</t>
+  </si>
+  <si>
+    <t>20100143</t>
+  </si>
+  <si>
+    <t>TEH KOTAK APPLE 300</t>
+  </si>
+  <si>
+    <t>20137159</t>
+  </si>
+  <si>
+    <t>TEH KOTAK MANGGA 300</t>
+  </si>
+  <si>
+    <t>20087016</t>
+  </si>
+  <si>
+    <t>TEH KOTAK LEMON 300</t>
+  </si>
+  <si>
+    <t>20135647</t>
+  </si>
+  <si>
+    <t>TEH KOTAK LYCHEE 300</t>
+  </si>
+  <si>
+    <t>20117682</t>
+  </si>
+  <si>
+    <t>DLMNT BOBA RD.VEL240</t>
+  </si>
+  <si>
+    <t>20117687</t>
+  </si>
+  <si>
+    <t>DLMNT BOBA MTCHA 240</t>
+  </si>
+  <si>
+    <t>20003786</t>
+  </si>
+  <si>
+    <t>NU GREEN TEA HNY 450</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20113059</t>
+  </si>
+  <si>
+    <t>NU YOGURT TEA 450ML</t>
+  </si>
+  <si>
+    <t>20139732</t>
+  </si>
+  <si>
+    <t>NU YOGRT TEA BRY 450</t>
+  </si>
+  <si>
+    <t>20012573</t>
+  </si>
+  <si>
+    <t>FRESTEA TEH MLATI500</t>
+  </si>
+  <si>
+    <t>20036765</t>
+  </si>
+  <si>
+    <t>FRESTEA GRN MADU 500</t>
+  </si>
+  <si>
+    <t>20012574</t>
+  </si>
+  <si>
+    <t>FRESTEA TEH APEL 500</t>
+  </si>
+  <si>
+    <t>20072802</t>
+  </si>
+  <si>
+    <t>FRSTEA TEH MRKSA 350</t>
+  </si>
+  <si>
+    <t>20138841</t>
+  </si>
+  <si>
+    <t>POKKA NAT. H.ORG 350</t>
+  </si>
+  <si>
+    <t>20040383</t>
+  </si>
+  <si>
+    <t>NU MILK TEA 330ML</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20069527</t>
+  </si>
+  <si>
+    <t>NU TEH TARIK 330ML</t>
+  </si>
+  <si>
+    <t>20128233</t>
+  </si>
+  <si>
+    <t>NU CHO TEA HZLTEA330</t>
+  </si>
+  <si>
+    <t>20138202</t>
+  </si>
+  <si>
+    <t>NU MATCHA LATTEA 330</t>
+  </si>
+  <si>
+    <t>20136363</t>
+  </si>
+  <si>
+    <t>ICHTN DARK CHOCO 300</t>
+  </si>
+  <si>
+    <t>20113450</t>
+  </si>
+  <si>
+    <t>ICHITAN MLK BRWN 300</t>
+  </si>
+  <si>
+    <t>20135599</t>
+  </si>
+  <si>
+    <t>ICHTAN KRN BANANA300</t>
+  </si>
+  <si>
+    <t>20085054</t>
+  </si>
+  <si>
+    <t>ICHTN THAI M.TEA 300</t>
+  </si>
+  <si>
+    <t>20101102</t>
+  </si>
+  <si>
+    <t>ICHTN MLK GR.TEA 300</t>
+  </si>
+  <si>
+    <t>20113377</t>
+  </si>
+  <si>
+    <t>FLRDINA COCO BIT 350</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20043877</t>
+  </si>
+  <si>
+    <t>FLORIDINA ORANGE 350</t>
+  </si>
+  <si>
+    <t>20021178</t>
+  </si>
+  <si>
+    <t>MINUTE MAID ORG 300</t>
+  </si>
+  <si>
+    <t>20137939</t>
+  </si>
+  <si>
+    <t>FRUITMN FITT JLW 350</t>
+  </si>
+  <si>
+    <t>20062818</t>
+  </si>
+  <si>
+    <t>FRUITAMIN LYCHE 350</t>
+  </si>
+  <si>
+    <t>20140331</t>
+  </si>
+  <si>
+    <t>COCO BIT STRAW.S 350</t>
+  </si>
+  <si>
+    <t>20140327</t>
+  </si>
+  <si>
+    <t>COCO BIT KY.GRP 350</t>
+  </si>
+  <si>
+    <t>20140332</t>
+  </si>
+  <si>
+    <t>COCO BIT HOK.MLN 350</t>
+  </si>
+  <si>
+    <t>20042848</t>
+  </si>
+  <si>
+    <t>MOGU MOGU LYCHHE 320</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20047245</t>
+  </si>
+  <si>
+    <t>MOGU MOGU CCONUT 320</t>
+  </si>
+  <si>
+    <t>20076486</t>
+  </si>
+  <si>
+    <t>MOGU MOGU MELON 320</t>
+  </si>
+  <si>
+    <t>20042859</t>
+  </si>
+  <si>
+    <t>MOGU MOGU MANGGA 320</t>
+  </si>
+  <si>
+    <t>20042860</t>
+  </si>
+  <si>
+    <t>MOGU MOGU STRWBRY320</t>
+  </si>
+  <si>
+    <t>20047244</t>
+  </si>
+  <si>
+    <t>MOGU MOGU GRAPE 320</t>
+  </si>
+  <si>
+    <t>20137095</t>
+  </si>
+  <si>
+    <t>MOGU2 BUBBLE GUM 320</t>
+  </si>
+  <si>
+    <t>20136277</t>
+  </si>
+  <si>
+    <t>SNPRD FRT MG.PINE220</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20134353</t>
+  </si>
+  <si>
+    <t>IDM S/B NNS&amp;MRKSA220</t>
+  </si>
+  <si>
+    <t>20134354</t>
+  </si>
+  <si>
+    <t>IDM SARI BH NANAS220</t>
+  </si>
+  <si>
+    <t>20089805</t>
+  </si>
+  <si>
+    <t>OLATTE PEACH KLG 240</t>
+  </si>
+  <si>
+    <t>20089806</t>
+  </si>
+  <si>
+    <t>OLATTE PEAR KLG 240</t>
+  </si>
+  <si>
+    <t>20135975</t>
+  </si>
+  <si>
+    <t>OLATTE STRWB KLG 240</t>
+  </si>
+  <si>
+    <t>20052734</t>
+  </si>
+  <si>
+    <t>LOTTE MILKIS MLN 250</t>
+  </si>
+  <si>
+    <t>10028190</t>
+  </si>
+  <si>
+    <t>LOTTE MILKIS KLG 250</t>
   </si>
   <si>
     <t>20038425</t>
@@ -325,888 +1195,6 @@
     <t>NTRVE BNCOL LYCH 100</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20102789</t>
-  </si>
-  <si>
-    <t>ABC CHOCMLT COFF 200</t>
-  </si>
-  <si>
-    <t>20102790</t>
-  </si>
-  <si>
-    <t>ABC MILK COFFEE 200</t>
-  </si>
-  <si>
-    <t>20120499</t>
-  </si>
-  <si>
-    <t>K/A SIGNT STRONG 200</t>
-  </si>
-  <si>
-    <t>20089792</t>
-  </si>
-  <si>
-    <t>K/A DRNK BLK COFF200</t>
-  </si>
-  <si>
-    <t>20124713</t>
-  </si>
-  <si>
-    <t>LUWAK KOPI+GULA 220</t>
-  </si>
-  <si>
-    <t>20123322</t>
-  </si>
-  <si>
-    <t>GOLDA CAPPUCCINO 200</t>
-  </si>
-  <si>
-    <t>20087542</t>
-  </si>
-  <si>
-    <t>GOLDA COFF.DOLCE 200</t>
-  </si>
-  <si>
-    <t>20109969</t>
-  </si>
-  <si>
-    <t>KOPIKO LUCKY DAY 180</t>
-  </si>
-  <si>
-    <t>20045415</t>
-  </si>
-  <si>
-    <t>KOPIKO 78C 240ML</t>
-  </si>
-  <si>
-    <t>20078206</t>
-  </si>
-  <si>
-    <t>LUWAK WHT ORGL 220ML</t>
-  </si>
-  <si>
-    <t>20093586</t>
-  </si>
-  <si>
-    <t>ICHTN THAI M.COFF300</t>
-  </si>
-  <si>
-    <t>20138025</t>
-  </si>
-  <si>
-    <t>HY BTS COFF TRMS 250</t>
-  </si>
-  <si>
-    <t>20138049</t>
-  </si>
-  <si>
-    <t>HY BTS COFF CPNO 250</t>
-  </si>
-  <si>
-    <t>20120904</t>
-  </si>
-  <si>
-    <t>KK BLACK AREN 220ML</t>
-  </si>
-  <si>
-    <t>20120906</t>
-  </si>
-  <si>
-    <t>KK MANTANCINO 220ML</t>
-  </si>
-  <si>
-    <t>20133409</t>
-  </si>
-  <si>
-    <t>KK CAFFE LATTE 200ML</t>
-  </si>
-  <si>
-    <t>20138168</t>
-  </si>
-  <si>
-    <t>KK CHEESE LATTEE 200</t>
-  </si>
-  <si>
-    <t>20138167</t>
-  </si>
-  <si>
-    <t>KK JPNS MATCHA 200</t>
-  </si>
-  <si>
-    <t>20100026</t>
-  </si>
-  <si>
-    <t>TORA/C ICED LATTE180</t>
-  </si>
-  <si>
-    <t>20027768</t>
-  </si>
-  <si>
-    <t>NESCAFE COFF CRM 180</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20076770</t>
-  </si>
-  <si>
-    <t>G/DAY CAPPUCCINO 250</t>
-  </si>
-  <si>
-    <t>20045674</t>
-  </si>
-  <si>
-    <t>G/DAY F.MOCACINO 250</t>
-  </si>
-  <si>
-    <t>20045673</t>
-  </si>
-  <si>
-    <t>G/DAY TIRAMISU/B 250</t>
-  </si>
-  <si>
-    <t>20056193</t>
-  </si>
-  <si>
-    <t>GOOD DAY AVCDO/D 250</t>
-  </si>
-  <si>
-    <t>20132329</t>
-  </si>
-  <si>
-    <t>GOOD DAY GRVY CKS250</t>
-  </si>
-  <si>
-    <t>20132760</t>
-  </si>
-  <si>
-    <t>CAFINO RTD ESPRSO200</t>
-  </si>
-  <si>
-    <t>20132761</t>
-  </si>
-  <si>
-    <t>CAFINO RTD CPCINO200</t>
-  </si>
-  <si>
-    <t>20138035</t>
-  </si>
-  <si>
-    <t>CAFFINO OATMARIE 200</t>
-  </si>
-  <si>
-    <t>20139577</t>
-  </si>
-  <si>
-    <t>PC AREN LATTE 210ML</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20139578</t>
-  </si>
-  <si>
-    <t>PC GOLDN CARAMEL 210</t>
-  </si>
-  <si>
-    <t>20139576</t>
-  </si>
-  <si>
-    <t>PC CRMY CPUCCINO 210</t>
-  </si>
-  <si>
-    <t>20140431</t>
-  </si>
-  <si>
-    <t>NSCAFE KITKAT LAT220</t>
-  </si>
-  <si>
-    <t>20133058</t>
-  </si>
-  <si>
-    <t>NSCAFE OAT LATTE 220</t>
-  </si>
-  <si>
-    <t>20134557</t>
-  </si>
-  <si>
-    <t>OATSIDE CRML MCHT200</t>
-  </si>
-  <si>
-    <t>20129108</t>
-  </si>
-  <si>
-    <t>OATSDE COFFEE 200</t>
-  </si>
-  <si>
-    <t>20114494</t>
-  </si>
-  <si>
-    <t>NSCAFE CRML MCTO 220</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20114495</t>
-  </si>
-  <si>
-    <t>NESCAFE CPUCCINO 220</t>
-  </si>
-  <si>
-    <t>20114493</t>
-  </si>
-  <si>
-    <t>NESCAFE LATTE 220ML</t>
-  </si>
-  <si>
-    <t>20138057</t>
-  </si>
-  <si>
-    <t>NSCAFE GULA AREN 220</t>
-  </si>
-  <si>
-    <t>20121456</t>
-  </si>
-  <si>
-    <t>NSCAFE ICE BLACK 220</t>
-  </si>
-  <si>
-    <t>20000787</t>
-  </si>
-  <si>
-    <t>NESCAFE ICE.CF OR220</t>
-  </si>
-  <si>
-    <t>20014954</t>
-  </si>
-  <si>
-    <t>NESCAFE ICE.CF MC220</t>
-  </si>
-  <si>
-    <t>20000786</t>
-  </si>
-  <si>
-    <t>NESCAFE ICE.CF LT220</t>
-  </si>
-  <si>
-    <t>20125115</t>
-  </si>
-  <si>
-    <t>STARBUCKS LATTE 220</t>
-  </si>
-  <si>
-    <t>20125126</t>
-  </si>
-  <si>
-    <t>STARBUCKS CARAMEL220</t>
-  </si>
-  <si>
-    <t>20014608</t>
-  </si>
-  <si>
-    <t>HRMVTON PSK BUMI 150</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10006263</t>
-  </si>
-  <si>
-    <t>HEMAVITON ENERGY 150</t>
-  </si>
-  <si>
-    <t>10002602</t>
-  </si>
-  <si>
-    <t>M-150 HEALT DRINK150</t>
-  </si>
-  <si>
-    <t>10002595</t>
-  </si>
-  <si>
-    <t>KRATINGDAENG 150 ML</t>
-  </si>
-  <si>
-    <t>10003427</t>
-  </si>
-  <si>
-    <t>KRATINGDAENG SPR.150</t>
-  </si>
-  <si>
-    <t>20022431</t>
-  </si>
-  <si>
-    <t>RED BULL E/DRNK 250</t>
-  </si>
-  <si>
-    <t>20056989</t>
-  </si>
-  <si>
-    <t>RED BULL GOLD 250ML</t>
-  </si>
-  <si>
-    <t>20138252</t>
-  </si>
-  <si>
-    <t>EXTRA JOSS ULTIMT250</t>
-  </si>
-  <si>
-    <t>20072287</t>
-  </si>
-  <si>
-    <t>M150 MNN ENRG CN 250</t>
-  </si>
-  <si>
-    <t>20080088</t>
-  </si>
-  <si>
-    <t>POKKA GREEN TEA 450</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20037565</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH MLATI500</t>
-  </si>
-  <si>
-    <t>20048348</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH L/SGR500</t>
-  </si>
-  <si>
-    <t>20036157</t>
-  </si>
-  <si>
-    <t>SOSRO TEH BOTOL 450</t>
-  </si>
-  <si>
-    <t>20002203</t>
-  </si>
-  <si>
-    <t>SOSRO F.TEA APEL 500</t>
-  </si>
-  <si>
-    <t>20003698</t>
-  </si>
-  <si>
-    <t>SOSRO FR.TEA XTRM500</t>
-  </si>
-  <si>
-    <t>20002205</t>
-  </si>
-  <si>
-    <t>SOSRO F.TEA BLKCR500</t>
-  </si>
-  <si>
-    <t>20134046</t>
-  </si>
-  <si>
-    <t>FRUIT TEA FREEZE 500</t>
-  </si>
-  <si>
-    <t>20060210</t>
-  </si>
-  <si>
-    <t>IDM TEH HJAU MLT 330</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20077509</t>
-  </si>
-  <si>
-    <t>IDM LEMON TEA 330ML</t>
-  </si>
-  <si>
-    <t>20126464</t>
-  </si>
-  <si>
-    <t>IDM TEH APL&amp;LYCHE350</t>
-  </si>
-  <si>
-    <t>20101897</t>
-  </si>
-  <si>
-    <t>IDM TEH APEL 350ML</t>
-  </si>
-  <si>
-    <t>20132840</t>
-  </si>
-  <si>
-    <t>IDM TEH BLCKCRRNT350</t>
-  </si>
-  <si>
-    <t>20066454</t>
-  </si>
-  <si>
-    <t>FRUIT TEA BLCKCR 350</t>
-  </si>
-  <si>
-    <t>20073495</t>
-  </si>
-  <si>
-    <t>FRUIT TEA FREEZE 350</t>
-  </si>
-  <si>
-    <t>20066455</t>
-  </si>
-  <si>
-    <t>FRUIT TEA APPLE 350</t>
-  </si>
-  <si>
-    <t>20079972</t>
-  </si>
-  <si>
-    <t>FRUIT TEA MRKISA 350</t>
-  </si>
-  <si>
-    <t>20060207</t>
-  </si>
-  <si>
-    <t>I/OCHA TEH MLATI 350</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20048934</t>
-  </si>
-  <si>
-    <t>I/OCHA GRN TEA 350ML</t>
-  </si>
-  <si>
-    <t>20018904</t>
-  </si>
-  <si>
-    <t>NU GREEN TEA HNY 330</t>
-  </si>
-  <si>
-    <t>20053867</t>
-  </si>
-  <si>
-    <t>TEH GELAS BTL 350ML</t>
-  </si>
-  <si>
-    <t>20073396</t>
-  </si>
-  <si>
-    <t>S-TEE BTL 390ML</t>
-  </si>
-  <si>
-    <t>20072249</t>
-  </si>
-  <si>
-    <t>SOSRO TEH BOTOL 350</t>
-  </si>
-  <si>
-    <t>20122278</t>
-  </si>
-  <si>
-    <t>TEH BOTOL LS.SGR 350</t>
-  </si>
-  <si>
-    <t>20082395</t>
-  </si>
-  <si>
-    <t>TEH BOTOL TAWAR 350</t>
-  </si>
-  <si>
-    <t>RT,(E-3.5B)</t>
-  </si>
-  <si>
-    <t>20035484</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH MLATI350</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20048155</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH L/SGR350</t>
-  </si>
-  <si>
-    <t>20026226</t>
-  </si>
-  <si>
-    <t>ULTRA TEH KOTAK 500</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>10036640</t>
-  </si>
-  <si>
-    <t>TEH KOTAK JASMINE300</t>
-  </si>
-  <si>
-    <t>20044334</t>
-  </si>
-  <si>
-    <t>SOSRO TEH BTL TPK300</t>
-  </si>
-  <si>
-    <t>10005128</t>
-  </si>
-  <si>
-    <t>SOSRO TEH KOTAK B250</t>
-  </si>
-  <si>
-    <t>20024315</t>
-  </si>
-  <si>
-    <t>TEH BOTOL LS.SGR 250</t>
-  </si>
-  <si>
-    <t>20048435</t>
-  </si>
-  <si>
-    <t>TEH KOTAK LESS/S 300</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20100142</t>
-  </si>
-  <si>
-    <t>TEH KOTAK BLCKCR 300</t>
-  </si>
-  <si>
-    <t>20100143</t>
-  </si>
-  <si>
-    <t>TEH KOTAK APPLE 300</t>
-  </si>
-  <si>
-    <t>20137159</t>
-  </si>
-  <si>
-    <t>TEH KOTAK MANGGA 300</t>
-  </si>
-  <si>
-    <t>20087016</t>
-  </si>
-  <si>
-    <t>TEH KOTAK LEMON 300</t>
-  </si>
-  <si>
-    <t>20135647</t>
-  </si>
-  <si>
-    <t>TEH KOTAK LYCHEE 300</t>
-  </si>
-  <si>
-    <t>20117682</t>
-  </si>
-  <si>
-    <t>DLMNT BOBA RD.VEL240</t>
-  </si>
-  <si>
-    <t>20117687</t>
-  </si>
-  <si>
-    <t>DLMNT BOBA MTCHA 240</t>
-  </si>
-  <si>
-    <t>20003786</t>
-  </si>
-  <si>
-    <t>NU GREEN TEA HNY 450</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20113059</t>
-  </si>
-  <si>
-    <t>NU YOGURT TEA 450ML</t>
-  </si>
-  <si>
-    <t>20139732</t>
-  </si>
-  <si>
-    <t>NU YOGRT TEA BRY 450</t>
-  </si>
-  <si>
-    <t>20012573</t>
-  </si>
-  <si>
-    <t>FRESTEA TEH MLATI500</t>
-  </si>
-  <si>
-    <t>20036765</t>
-  </si>
-  <si>
-    <t>FRESTEA GRN MADU 500</t>
-  </si>
-  <si>
-    <t>20012574</t>
-  </si>
-  <si>
-    <t>FRESTEA TEH APEL 500</t>
-  </si>
-  <si>
-    <t>20072802</t>
-  </si>
-  <si>
-    <t>FRSTEA TEH MRKSA 350</t>
-  </si>
-  <si>
-    <t>20138841</t>
-  </si>
-  <si>
-    <t>POKKA NAT. H.ORG 350</t>
-  </si>
-  <si>
-    <t>20040383</t>
-  </si>
-  <si>
-    <t>NU MILK TEA 330ML</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20069527</t>
-  </si>
-  <si>
-    <t>NU TEH TARIK 330ML</t>
-  </si>
-  <si>
-    <t>20128233</t>
-  </si>
-  <si>
-    <t>NU CHO TEA HZLTEA330</t>
-  </si>
-  <si>
-    <t>20138202</t>
-  </si>
-  <si>
-    <t>NU MTCHA LATTEA</t>
-  </si>
-  <si>
-    <t>20136363</t>
-  </si>
-  <si>
-    <t>ICHTN DARK CHOCO 300</t>
-  </si>
-  <si>
-    <t>20113450</t>
-  </si>
-  <si>
-    <t>ICHITAN MLK BRWN 300</t>
-  </si>
-  <si>
-    <t>20135599</t>
-  </si>
-  <si>
-    <t>ICHTAN KRN BANANA300</t>
-  </si>
-  <si>
-    <t>20085054</t>
-  </si>
-  <si>
-    <t>ICHTN THAI M.TEA 300</t>
-  </si>
-  <si>
-    <t>20101102</t>
-  </si>
-  <si>
-    <t>ICHTN MLK GR.TEA 300</t>
-  </si>
-  <si>
-    <t>20113377</t>
-  </si>
-  <si>
-    <t>FLRDINA COCO BIT 350</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20043877</t>
-  </si>
-  <si>
-    <t>FLORIDINA ORANGE 350</t>
-  </si>
-  <si>
-    <t>20021178</t>
-  </si>
-  <si>
-    <t>MINUTE MAID ORG 300</t>
-  </si>
-  <si>
-    <t>20137939</t>
-  </si>
-  <si>
-    <t>FRUITMN FITT JLW 350</t>
-  </si>
-  <si>
-    <t>20062818</t>
-  </si>
-  <si>
-    <t>FRUITAMIN LYCHE 350</t>
-  </si>
-  <si>
-    <t>20091654</t>
-  </si>
-  <si>
-    <t>COCO BIT SP.GUAV 350</t>
-  </si>
-  <si>
-    <t>20140331</t>
-  </si>
-  <si>
-    <t>COCO BIT STRAW.S 350</t>
-  </si>
-  <si>
-    <t>20140327</t>
-  </si>
-  <si>
-    <t>COCO BIT KY.GRP 350</t>
-  </si>
-  <si>
-    <t>20140332</t>
-  </si>
-  <si>
-    <t>COCO BIT HOK.MLN 350</t>
-  </si>
-  <si>
-    <t>20042848</t>
-  </si>
-  <si>
-    <t>MOGU MOGU LYCHHE 320</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20047245</t>
-  </si>
-  <si>
-    <t>MOGU MOGU CCONUT 320</t>
-  </si>
-  <si>
-    <t>20076486</t>
-  </si>
-  <si>
-    <t>MOGU MOGU MELON 320</t>
-  </si>
-  <si>
-    <t>20042859</t>
-  </si>
-  <si>
-    <t>MOGU MOGU MANGGA 320</t>
-  </si>
-  <si>
-    <t>20042860</t>
-  </si>
-  <si>
-    <t>MOGU MOGU STRWBRY320</t>
-  </si>
-  <si>
-    <t>20047244</t>
-  </si>
-  <si>
-    <t>MOGU MOGU GRAPE 320</t>
-  </si>
-  <si>
-    <t>20137095</t>
-  </si>
-  <si>
-    <t>MOGU2 BUBBLE GUM 320</t>
-  </si>
-  <si>
-    <t>20136251</t>
-  </si>
-  <si>
-    <t>JELE FRSH BLBRRY125G</t>
-  </si>
-  <si>
-    <t>20136277</t>
-  </si>
-  <si>
-    <t>SNPRD FRT MG.PINE220</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20134353</t>
-  </si>
-  <si>
-    <t>IDM S/B NNS&amp;MRKSA220</t>
-  </si>
-  <si>
-    <t>20134354</t>
-  </si>
-  <si>
-    <t>IDM SARI BH NANAS220</t>
-  </si>
-  <si>
-    <t>20089805</t>
-  </si>
-  <si>
-    <t>OLATTE PEACH KLG 240</t>
-  </si>
-  <si>
-    <t>20089806</t>
-  </si>
-  <si>
-    <t>OLATTE PEAR KLG 240</t>
-  </si>
-  <si>
-    <t>20135975</t>
-  </si>
-  <si>
-    <t>OLATTE STRWB KLG 240</t>
-  </si>
-  <si>
-    <t>20052734</t>
-  </si>
-  <si>
-    <t>LOTTE MILKIS MLN 250</t>
-  </si>
-  <si>
-    <t>10028190</t>
-  </si>
-  <si>
-    <t>LOTTE MILKIS KLG 250</t>
-  </si>
-  <si>
-    <t>20138893</t>
-  </si>
-  <si>
-    <t>AMO DRMY STRAW 180ML</t>
-  </si>
-  <si>
-    <t>20138894</t>
-  </si>
-  <si>
-    <t>AMO FIZZY EASY 180ML</t>
-  </si>
-  <si>
     <t>10008887</t>
   </si>
   <si>
@@ -1360,12 +1348,342 @@
     <t>PORORO APEL 235ML</t>
   </si>
   <si>
+    <t>20019179</t>
+  </si>
+  <si>
+    <t>B/BRAND GOLD MALT140</t>
+  </si>
+  <si>
+    <t>20046315</t>
+  </si>
+  <si>
+    <t>MINUTE M. NB STRW300</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20046314</t>
+  </si>
+  <si>
+    <t>MINUTE M. NB ORG 300</t>
+  </si>
+  <si>
+    <t>20133427</t>
+  </si>
+  <si>
+    <t>YOBICK YOG ORIGNL180</t>
+  </si>
+  <si>
+    <t>20133429</t>
+  </si>
+  <si>
+    <t>YOBICK YOG SAKURA180</t>
+  </si>
+  <si>
+    <t>20135462</t>
+  </si>
+  <si>
+    <t>DNCW MLKY CKS&amp;CRM180</t>
+  </si>
+  <si>
+    <t>20135463</t>
+  </si>
+  <si>
+    <t>DNCW MLKY CHO.HZL180</t>
+  </si>
+  <si>
+    <t>20139295</t>
+  </si>
+  <si>
+    <t>BROOKFARM ORI 200ML</t>
+  </si>
+  <si>
+    <t>20139300</t>
+  </si>
+  <si>
+    <t>BROOKFARM MATCHA 200</t>
+  </si>
+  <si>
+    <t>20108987</t>
+  </si>
+  <si>
+    <t>V-SOY MULTI-GRAIN200</t>
+  </si>
+  <si>
+    <t>20123171</t>
+  </si>
+  <si>
+    <t>LACTASOY MILK CLG250</t>
+  </si>
+  <si>
+    <t>20135311</t>
+  </si>
+  <si>
+    <t>HYDROPL ISTNC JRK350</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20069773</t>
+  </si>
+  <si>
+    <t>ISOPLUS BTL 350ML</t>
+  </si>
+  <si>
+    <t>20128918</t>
+  </si>
+  <si>
+    <t>ISOPLUS COCO 350ML</t>
+  </si>
+  <si>
+    <t>20138959</t>
+  </si>
+  <si>
+    <t>IF COCONUT WTR 350ML</t>
+  </si>
+  <si>
+    <t>20135600</t>
+  </si>
+  <si>
+    <t>ICHTAN THAI COCO 300</t>
+  </si>
+  <si>
+    <t>20138837</t>
+  </si>
+  <si>
+    <t>MZONE COCO BOOST 500</t>
+  </si>
+  <si>
+    <t>20094167</t>
+  </si>
+  <si>
+    <t>MIZONE MOOD UP 500</t>
+  </si>
+  <si>
+    <t>20094164</t>
+  </si>
+  <si>
+    <t>MIZONE ACTIVE 500ML</t>
+  </si>
+  <si>
+    <t>20038777</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 900ML</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20009722</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 500ML</t>
+  </si>
+  <si>
+    <t>20118832</t>
+  </si>
+  <si>
+    <t>ION WATER BTL 500ML</t>
+  </si>
+  <si>
+    <t>20019674</t>
+  </si>
+  <si>
+    <t>YOU C1000 ORG WTR500</t>
+  </si>
+  <si>
+    <t>20019673</t>
+  </si>
+  <si>
+    <t>YOU C1000 LMN WTR500</t>
+  </si>
+  <si>
+    <t>20141124</t>
+  </si>
+  <si>
+    <t>REGEN ORANGE 300ML</t>
+  </si>
+  <si>
+    <t>20139550</t>
+  </si>
+  <si>
+    <t>REGEN LMN LIME 300ML</t>
+  </si>
+  <si>
+    <t>20015838</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 350ML</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20065248</t>
+  </si>
+  <si>
+    <t>ION WATER BTL 350ML</t>
+  </si>
+  <si>
+    <t>20057867</t>
+  </si>
+  <si>
+    <t>HYDRO COCO 500ML</t>
+  </si>
+  <si>
+    <t>20119876</t>
+  </si>
+  <si>
+    <t>HYDR.COCO VITA-D 330</t>
+  </si>
+  <si>
+    <t>20018435</t>
+  </si>
+  <si>
+    <t>HYDRO COCO 250ML</t>
+  </si>
+  <si>
+    <t>20115548</t>
+  </si>
+  <si>
+    <t>IDM COCONUT WTR 250</t>
+  </si>
+  <si>
+    <t>20128561</t>
+  </si>
+  <si>
+    <t>IDM CCNT WTR ORGE250</t>
+  </si>
+  <si>
+    <t>20089821</t>
+  </si>
+  <si>
+    <t>ORONAMIN C DRINK 120</t>
+  </si>
+  <si>
+    <t>RT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20115549</t>
+  </si>
+  <si>
+    <t>FIBE MINI 100ML</t>
+  </si>
+  <si>
+    <t>20009737</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK ORG140</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10039897</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK LMN140</t>
+  </si>
+  <si>
+    <t>20032519</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK APL140</t>
+  </si>
+  <si>
+    <t>20115636</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK MGO140</t>
+  </si>
+  <si>
+    <t>20113135</t>
+  </si>
+  <si>
+    <t>AMUNIZER BTL 140ML</t>
+  </si>
+  <si>
+    <t>20048546</t>
+  </si>
+  <si>
+    <t>HEMAVITON C1000 330</t>
+  </si>
+  <si>
+    <t>20103178</t>
+  </si>
+  <si>
+    <t>HMVTON C1000 LSO 330</t>
+  </si>
+  <si>
+    <t>20103368</t>
+  </si>
+  <si>
+    <t>HMVTON C1000 LMN 330</t>
+  </si>
+  <si>
+    <t>20128794</t>
+  </si>
+  <si>
+    <t>NS/GOODNES KURMA 189</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>20103718</t>
+  </si>
+  <si>
+    <t>TJH KURMA SUSU KR189</t>
+  </si>
+  <si>
+    <t>20124409</t>
+  </si>
+  <si>
+    <t>INDOMLK STRL HNY 189</t>
+  </si>
+  <si>
+    <t>20136193</t>
+  </si>
+  <si>
+    <t>SO GOOD SUSU STRL189</t>
+  </si>
+  <si>
+    <t>20133805</t>
+  </si>
+  <si>
+    <t>ENTRASOL STERIL 180</t>
+  </si>
+  <si>
+    <t>20134968</t>
+  </si>
+  <si>
+    <t>COLLAGENA STERIL189</t>
+  </si>
+  <si>
+    <t>20140174</t>
+  </si>
+  <si>
+    <t>BEAR BRAND CLGEN 189</t>
+  </si>
+  <si>
+    <t>10004906</t>
+  </si>
+  <si>
+    <t>BEAR BRAND STERIL189</t>
+  </si>
+  <si>
     <t>20136952</t>
   </si>
   <si>
     <t>V-SOY SOYA BEAN 300</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>20048096</t>
   </si>
   <si>
@@ -1375,336 +1693,12 @@
     <t>NARAYA KDLAI BTL320</t>
   </si>
   <si>
-    <t>20046315</t>
-  </si>
-  <si>
-    <t>MINUTE M. NB STRW300</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20046314</t>
-  </si>
-  <si>
-    <t>MINUTE M. NB ORG 300</t>
-  </si>
-  <si>
-    <t>20133427</t>
-  </si>
-  <si>
-    <t>YOBICK YOG ORIGNL180</t>
-  </si>
-  <si>
-    <t>20133429</t>
-  </si>
-  <si>
-    <t>YOBICK YOG SAKURA180</t>
-  </si>
-  <si>
-    <t>20139295</t>
-  </si>
-  <si>
-    <t>BROOKFARM ORI 200ML</t>
-  </si>
-  <si>
-    <t>20139300</t>
-  </si>
-  <si>
-    <t>BROOKFARM MATCHA 200</t>
-  </si>
-  <si>
-    <t>20108987</t>
-  </si>
-  <si>
-    <t>V-SOY MULTI-GRAIN200</t>
-  </si>
-  <si>
-    <t>20037021</t>
-  </si>
-  <si>
-    <t>LACTASOY MILK ORG250</t>
-  </si>
-  <si>
-    <t>20123171</t>
-  </si>
-  <si>
-    <t>LACTASOY MILK CLG250</t>
-  </si>
-  <si>
-    <t>20019179</t>
-  </si>
-  <si>
-    <t>B/BRAND GOLD MALT140</t>
-  </si>
-  <si>
-    <t>20135311</t>
-  </si>
-  <si>
-    <t>HYDROPL ISTNC JRK350</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20069773</t>
-  </si>
-  <si>
-    <t>ISOPLUS BTL 350ML</t>
-  </si>
-  <si>
-    <t>20128918</t>
-  </si>
-  <si>
-    <t>ISOPLUS COCO 350ML</t>
-  </si>
-  <si>
-    <t>20138959</t>
-  </si>
-  <si>
-    <t>IF COCONUT WTR 350ML</t>
-  </si>
-  <si>
-    <t>20135600</t>
-  </si>
-  <si>
-    <t>ICHTAN THAI COCO 300</t>
-  </si>
-  <si>
-    <t>20138837</t>
-  </si>
-  <si>
-    <t>MZONE COCO BOOST 500</t>
-  </si>
-  <si>
-    <t>20094167</t>
-  </si>
-  <si>
-    <t>MIZONE MOOD UP 500</t>
-  </si>
-  <si>
-    <t>20094164</t>
-  </si>
-  <si>
-    <t>MIZONE ACTIVE 500ML</t>
-  </si>
-  <si>
-    <t>20038777</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 900ML</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20009722</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 500ML</t>
-  </si>
-  <si>
-    <t>20118832</t>
-  </si>
-  <si>
-    <t>ION WATER BTL 500ML</t>
-  </si>
-  <si>
-    <t>20019674</t>
-  </si>
-  <si>
-    <t>YOU C1000 ORG WTR500</t>
-  </si>
-  <si>
-    <t>20019673</t>
-  </si>
-  <si>
-    <t>YOU C1000 LMN WTR500</t>
-  </si>
-  <si>
-    <t>20141124</t>
-  </si>
-  <si>
-    <t>REGEN ORANGE 300ML</t>
-  </si>
-  <si>
-    <t>20139550</t>
-  </si>
-  <si>
-    <t>REGEN LMN LIME 300ML</t>
-  </si>
-  <si>
-    <t>20015838</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 350ML</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20065248</t>
-  </si>
-  <si>
-    <t>ION WATER BTL 350ML</t>
-  </si>
-  <si>
-    <t>20057867</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 500ML</t>
-  </si>
-  <si>
-    <t>20119876</t>
-  </si>
-  <si>
-    <t>HYDR.COCO VITA-D 330</t>
-  </si>
-  <si>
-    <t>20018435</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 250ML</t>
-  </si>
-  <si>
-    <t>20115548</t>
-  </si>
-  <si>
-    <t>IDM COCONUT WTR 250</t>
-  </si>
-  <si>
-    <t>20128561</t>
-  </si>
-  <si>
-    <t>IDM CCNT WTR ORGE250</t>
-  </si>
-  <si>
-    <t>20089821</t>
-  </si>
-  <si>
-    <t>ORONAMIN C DRINK 120</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20115549</t>
-  </si>
-  <si>
-    <t>FIBE MINI 100ML</t>
-  </si>
-  <si>
-    <t>20009737</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK ORG140</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>10039897</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK LMN140</t>
-  </si>
-  <si>
-    <t>20032519</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK APL140</t>
-  </si>
-  <si>
-    <t>20115636</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK MGO140</t>
-  </si>
-  <si>
-    <t>20113135</t>
-  </si>
-  <si>
-    <t>AMUNIZER BTL 140ML</t>
-  </si>
-  <si>
-    <t>20048546</t>
-  </si>
-  <si>
-    <t>HEMAVITON C1000 330</t>
-  </si>
-  <si>
-    <t>20103178</t>
-  </si>
-  <si>
-    <t>HMVTON C1000 LSO 330</t>
-  </si>
-  <si>
-    <t>20103368</t>
-  </si>
-  <si>
-    <t>HMVTON C1000 LMN 330</t>
-  </si>
-  <si>
-    <t>20128794</t>
-  </si>
-  <si>
-    <t>NS/GOODNES KURMA 189</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>20103718</t>
-  </si>
-  <si>
-    <t>TJH KURMA SUSU KR189</t>
-  </si>
-  <si>
-    <t>20124409</t>
-  </si>
-  <si>
-    <t>INDOMLK STRL HNY 189</t>
-  </si>
-  <si>
-    <t>20136193</t>
-  </si>
-  <si>
-    <t>SO GOOD SUSU STRL189</t>
-  </si>
-  <si>
-    <t>20133805</t>
-  </si>
-  <si>
-    <t>ENTRASOL STERIL 180</t>
-  </si>
-  <si>
-    <t>20134968</t>
-  </si>
-  <si>
-    <t>COLLAGENA STERIL189</t>
-  </si>
-  <si>
-    <t>20140174</t>
-  </si>
-  <si>
-    <t>BEAR BRAND CLGEN 189</t>
-  </si>
-  <si>
-    <t>10004906</t>
-  </si>
-  <si>
-    <t>BEAR BRAND STERIL189</t>
-  </si>
-  <si>
     <t>20107748</t>
   </si>
   <si>
     <t>MILKU SUSU CKLT 200</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>20107749</t>
   </si>
   <si>
@@ -1733,30 +1727,6 @@
   </si>
   <si>
     <t>INDOMILK CAIR STW190</t>
-  </si>
-  <si>
-    <t>20136149</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT BL.CHO200</t>
-  </si>
-  <si>
-    <t>20136077</t>
-  </si>
-  <si>
-    <t>GRNFLD UHT CF/LTE200</t>
-  </si>
-  <si>
-    <t>20135463</t>
-  </si>
-  <si>
-    <t>DNCW MLKY CHO.HZL180</t>
-  </si>
-  <si>
-    <t>20135462</t>
-  </si>
-  <si>
-    <t>DNCW MLKY CKS&amp;CRM180</t>
   </si>
   <si>
     <t>10004443</t>
@@ -2701,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F354"/>
+  <dimension ref="A1:F349"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2908,15 +2878,15 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -2928,7 +2898,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,7 +2918,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,21 +2972,21 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -3025,7 +2995,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -3033,10 +3003,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -3045,7 +3015,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -3053,10 +3023,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -3065,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -3073,10 +3043,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -3085,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -3093,10 +3063,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -3105,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
@@ -3113,10 +3083,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -3125,7 +3095,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -3133,10 +3103,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -3145,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -3162,10 +3132,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -3185,10 +3155,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>23</v>
@@ -3225,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
@@ -3245,18 +3215,18 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -3265,30 +3235,30 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,10 +3295,10 @@
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,10 +3315,10 @@
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,18 +3335,18 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -3385,10 +3355,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,10 +3375,10 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3425,10 +3395,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3442,13 +3412,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,10 +3435,10 @@
         <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,7 +3455,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>23</v>
@@ -3505,10 +3475,10 @@
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>23</v>
@@ -3545,10 +3515,10 @@
         <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,10 +3535,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,10 +3555,10 @@
         <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,18 +3575,18 @@
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -3628,15 +3598,15 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -3648,15 +3618,15 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -3668,15 +3638,15 @@
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -3688,15 +3658,15 @@
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -3708,21 +3678,21 @@
         <v>17</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
@@ -3733,16 +3703,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
@@ -3753,16 +3723,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>11</v>
@@ -3773,16 +3743,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
@@ -3793,42 +3763,42 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3842,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
@@ -3862,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>11</v>
@@ -3882,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
@@ -3902,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>17</v>
@@ -3922,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>20</v>
@@ -3942,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>37</v>
@@ -3962,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>23</v>
@@ -3982,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>23</v>
@@ -3993,22 +3963,22 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,13 +3992,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4042,13 +4012,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,13 +4032,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,13 +4052,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4102,13 +4072,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4122,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -4142,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>23</v>
@@ -4162,33 +4132,33 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,13 +4172,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,13 +4192,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,13 +4212,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,13 +4232,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4282,10 +4252,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
@@ -4302,33 +4272,33 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4342,13 +4312,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4362,13 +4332,13 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,13 +4352,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,13 +4372,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,13 +4392,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,13 +4412,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4462,13 +4432,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4482,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>23</v>
@@ -4502,33 +4472,33 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4542,13 +4512,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,13 +4532,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,10 +4552,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
@@ -4602,13 +4572,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,13 +4592,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,10 +4612,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
@@ -4662,13 +4632,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4682,33 +4652,33 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4722,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>23</v>
@@ -4742,10 +4712,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>23</v>
@@ -4762,10 +4732,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>23</v>
@@ -4782,10 +4752,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>23</v>
@@ -4802,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>23</v>
@@ -4822,10 +4792,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>23</v>
@@ -4842,33 +4812,33 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4882,13 +4852,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,13 +4872,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4922,13 +4892,13 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,13 +4912,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4962,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>23</v>
@@ -4982,10 +4952,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>23</v>
@@ -5002,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>23</v>
@@ -5022,10 +4992,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>23</v>
@@ -5033,19 +5003,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>23</v>
@@ -5062,10 +5032,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>23</v>
@@ -5082,10 +5052,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>23</v>
@@ -5102,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>23</v>
@@ -5122,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>23</v>
@@ -5142,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>23</v>
@@ -5162,50 +5132,50 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>23</v>
@@ -5222,10 +5192,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>23</v>
@@ -5233,19 +5203,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>23</v>
@@ -5262,10 +5232,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>23</v>
@@ -5282,10 +5252,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>23</v>
@@ -5302,10 +5272,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>23</v>
@@ -5322,10 +5292,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>23</v>
@@ -5468,7 +5438,7 @@
         <v>37</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,10 +5455,10 @@
         <v>290</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,7 +5615,7 @@
         <v>307</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>23</v>
@@ -5768,7 +5738,7 @@
         <v>20</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,10 +5775,10 @@
         <v>324</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,10 +5795,10 @@
         <v>324</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,7 +5915,7 @@
         <v>343</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>23</v>
@@ -5965,7 +5935,7 @@
         <v>343</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>23</v>
@@ -5985,7 +5955,7 @@
         <v>343</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>23</v>
@@ -6002,10 +5972,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>23</v>
@@ -6013,19 +5983,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>23</v>
@@ -6042,10 +6012,10 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>23</v>
@@ -6062,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>23</v>
@@ -6082,10 +6052,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>23</v>
@@ -6102,10 +6072,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>23</v>
@@ -6122,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>23</v>
@@ -6142,30 +6112,30 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>23</v>
@@ -6173,22 +6143,22 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6202,13 +6172,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6222,13 +6192,13 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6242,13 +6212,13 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6262,13 +6232,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,13 +6252,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,13 +6272,13 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,13 +6292,13 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>23</v>
@@ -6353,42 +6323,42 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6402,13 +6372,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6422,13 +6392,13 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,13 +6412,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6462,13 +6432,13 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,13 +6452,13 @@
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,10 +6472,10 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>23</v>
@@ -6513,19 +6483,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>23</v>
@@ -6533,19 +6503,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>23</v>
@@ -6562,10 +6532,10 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>23</v>
@@ -6582,10 +6552,10 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>23</v>
@@ -6602,13 +6572,13 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,13 +6592,13 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6642,13 +6612,13 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6662,13 +6632,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6682,10 +6652,10 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>23</v>
@@ -6702,53 +6672,53 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6762,13 +6732,13 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,13 +6752,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6802,13 +6772,13 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6822,13 +6792,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6842,70 +6812,70 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="E208" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>23</v>
@@ -6913,59 +6883,59 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>23</v>
@@ -6973,19 +6943,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>23</v>
@@ -6993,39 +6963,39 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>23</v>
@@ -7033,39 +7003,39 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>23</v>
@@ -7073,19 +7043,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>23</v>
@@ -7093,19 +7063,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>23</v>
@@ -7113,19 +7083,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>23</v>
@@ -7133,19 +7103,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>23</v>
@@ -7153,639 +7123,639 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="E226" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>30</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="E243" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>524</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E250" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>23</v>
@@ -7793,19 +7763,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>23</v>
@@ -7813,19 +7783,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>23</v>
@@ -7833,59 +7803,59 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>23</v>
@@ -7893,19 +7863,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>23</v>
@@ -7913,19 +7883,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>23</v>
@@ -7942,10 +7912,10 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>23</v>
@@ -7962,10 +7932,10 @@
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>23</v>
@@ -7982,10 +7952,10 @@
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>23</v>
@@ -8002,10 +7972,10 @@
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>23</v>
@@ -8022,10 +7992,10 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>23</v>
@@ -8033,19 +8003,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="E267" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>23</v>
@@ -8053,19 +8023,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>23</v>
@@ -8073,19 +8043,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>23</v>
@@ -8093,19 +8063,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>23</v>
@@ -8113,19 +8083,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>23</v>
@@ -8142,10 +8112,10 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>23</v>
@@ -8162,10 +8132,10 @@
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>23</v>
@@ -8182,10 +8152,10 @@
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>23</v>
@@ -8202,10 +8172,10 @@
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>23</v>
@@ -8222,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>23</v>
@@ -8242,10 +8212,10 @@
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>23</v>
@@ -8253,19 +8223,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="E278" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>23</v>
@@ -8273,19 +8243,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>23</v>
@@ -8293,19 +8263,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>23</v>
@@ -8313,19 +8283,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>23</v>
@@ -8333,19 +8303,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>23</v>
@@ -8362,30 +8332,30 @@
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>23</v>
@@ -8393,19 +8363,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>23</v>
@@ -8413,19 +8383,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>23</v>
@@ -8433,122 +8403,122 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="E288" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>23</v>
+        <v>610</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8562,13 +8532,13 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8582,13 +8552,13 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8602,13 +8572,13 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -8622,110 +8592,110 @@
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>620</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="E297" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>620</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>620</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>620</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>620</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>23</v>
@@ -8742,10 +8712,10 @@
         <v>3</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>23</v>
@@ -8762,10 +8732,10 @@
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>23</v>
@@ -8782,10 +8752,10 @@
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>23</v>
@@ -8802,10 +8772,10 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>23</v>
@@ -8813,19 +8783,19 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="E306" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>23</v>
@@ -8833,19 +8803,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>23</v>
@@ -8853,19 +8823,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>23</v>
@@ -8873,19 +8843,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>23</v>
@@ -8893,19 +8863,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>23</v>
@@ -8922,10 +8892,10 @@
         <v>3</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>23</v>
@@ -8942,10 +8912,10 @@
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>23</v>
@@ -8962,10 +8932,10 @@
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>23</v>
@@ -8982,10 +8952,10 @@
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>23</v>
@@ -8993,19 +8963,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="E315" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>23</v>
@@ -9013,19 +8983,19 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>23</v>
@@ -9033,19 +9003,19 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>23</v>
@@ -9053,19 +9023,19 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>23</v>
@@ -9073,19 +9043,19 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>23</v>
@@ -9102,10 +9072,10 @@
         <v>3</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>23</v>
@@ -9122,10 +9092,10 @@
         <v>3</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>23</v>
@@ -9142,10 +9112,10 @@
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>23</v>
@@ -9162,10 +9132,10 @@
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>23</v>
@@ -9173,19 +9143,19 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="E324" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>23</v>
@@ -9193,59 +9163,59 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>23</v>
@@ -9253,19 +9223,19 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>23</v>
@@ -9282,10 +9252,10 @@
         <v>3</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>23</v>
@@ -9302,13 +9272,13 @@
         <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -9322,13 +9292,13 @@
         <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -9342,10 +9312,10 @@
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>23</v>
@@ -9362,50 +9332,50 @@
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>23</v>
@@ -9413,39 +9383,39 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>23</v>
@@ -9453,22 +9423,22 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -9482,13 +9452,13 @@
         <v>3</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -9502,50 +9472,50 @@
         <v>3</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>23</v>
+        <v>731</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>23</v>
@@ -9553,19 +9523,19 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="E343" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>23</v>
@@ -9573,221 +9543,121 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>741</v>
+        <v>70</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>68</v>
+        <v>748</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>23</v>
+        <v>751</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>23</v>
+        <v>751</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F354" s="1" t="s">
         <v>23</v>
       </c>
     </row>
